--- a/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
@@ -5,18 +5,20 @@
   <sheets>
     <sheet state="visible" name="Attendance Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$A$6:$AA$77</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="pG9jADho6jiJx+aZztDsCH586QaoCxZ97jZgo2JPbx4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Cx//RZEgw1kgQ+HHdLsyDQx6JcilwZP8iMdGGH/ociQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -865,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -935,6 +937,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1183,11 +1188,22 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="7.25"/>
-    <col customWidth="1" min="5" max="7" width="12.75"/>
-    <col customWidth="1" min="8" max="26" width="10.75"/>
+    <col customWidth="1" min="2" max="2" width="13.63"/>
+    <col customWidth="1" min="3" max="3" width="21.88"/>
+    <col customWidth="1" min="4" max="4" width="5.63"/>
+    <col customWidth="1" min="5" max="5" width="11.63"/>
+    <col customWidth="1" min="6" max="6" width="12.13"/>
+    <col customWidth="1" min="7" max="7" width="4.88"/>
+    <col customWidth="1" min="8" max="8" width="4.63"/>
+    <col customWidth="1" min="9" max="9" width="4.0"/>
+    <col customWidth="1" min="10" max="10" width="4.13"/>
+    <col customWidth="1" min="11" max="11" width="3.88"/>
+    <col customWidth="1" min="12" max="12" width="4.38"/>
+    <col customWidth="1" min="13" max="13" width="4.5"/>
+    <col customWidth="1" min="14" max="14" width="5.25"/>
+    <col customWidth="1" min="15" max="17" width="5.13"/>
+    <col customWidth="1" min="18" max="22" width="5.25"/>
+    <col customWidth="1" min="23" max="26" width="5.13"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1582,7 +1598,7 @@
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1593,34 +1609,44 @@
       <c r="I7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
+      <c r="J7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="28">
+      <c r="A8" s="29">
         <f t="shared" ref="A8:A95" si="3">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1628,49 +1654,59 @@
       </c>
       <c r="E8" s="24">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="29">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F8" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="28">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1680,9 +1716,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F9" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1693,34 +1729,44 @@
       <c r="I9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
+      <c r="J9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="28">
+      <c r="A10" s="29">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1728,11 +1774,11 @@
       </c>
       <c r="E10" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1743,34 +1789,44 @@
       <c r="I10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
+      <c r="J10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="28">
+      <c r="A11" s="29">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1780,47 +1836,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F11" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F11" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
+      <c r="J11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="28">
+      <c r="A12" s="29">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1828,11 +1894,11 @@
       </c>
       <c r="E12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1843,34 +1909,44 @@
       <c r="I12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
+      <c r="J12" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1880,47 +1956,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F13" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F13" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
+      <c r="J13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="28">
+      <c r="A14" s="29">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1928,12 +2014,12 @@
       </c>
       <c r="E14" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="31">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="F14" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="G14" s="26" t="s">
         <v>20</v>
       </c>
@@ -1943,34 +2029,44 @@
       <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
+      <c r="J14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="28">
+      <c r="A15" s="29">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1978,11 +2074,11 @@
       </c>
       <c r="E15" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -1993,34 +2089,44 @@
       <c r="I15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
+      <c r="J15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="28">
+      <c r="A16" s="29">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -2030,9 +2136,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F16" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F16" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>20</v>
@@ -2040,37 +2146,47 @@
       <c r="H16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
+      <c r="I16" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="28">
+      <c r="A17" s="29">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2078,11 +2194,11 @@
       </c>
       <c r="E17" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>20</v>
@@ -2093,34 +2209,44 @@
       <c r="I17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
+      <c r="J17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="28">
+      <c r="A18" s="29">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2128,11 +2254,11 @@
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F18" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2143,34 +2269,44 @@
       <c r="I18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
+      <c r="J18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="28">
+      <c r="A19" s="29">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2180,9 +2316,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F19" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2193,34 +2329,44 @@
       <c r="I19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
+      <c r="J19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="28">
+      <c r="A20" s="29">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -2230,9 +2376,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F20" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2243,34 +2389,44 @@
       <c r="I20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
+      <c r="J20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="28">
+      <c r="A21" s="29">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -2278,11 +2434,11 @@
       </c>
       <c r="E21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2293,34 +2449,44 @@
       <c r="I21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
+      <c r="J21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="28">
+      <c r="A22" s="29">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2328,11 +2494,11 @@
       </c>
       <c r="E22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2343,34 +2509,44 @@
       <c r="I22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
+      <c r="J22" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="28">
+      <c r="A23" s="29">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -2378,11 +2554,11 @@
       </c>
       <c r="E23" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2393,34 +2569,44 @@
       <c r="I23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
+      <c r="J23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="28">
+      <c r="A24" s="29">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -2428,11 +2614,11 @@
       </c>
       <c r="E24" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F24" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2443,34 +2629,44 @@
       <c r="I24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
+      <c r="J24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="28">
+      <c r="A25" s="29">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2480,47 +2676,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F25" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F25" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="J25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="28">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="29" t="s">
+      <c r="A26" s="29">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -2528,49 +2734,59 @@
       </c>
       <c r="E26" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="31">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="F26" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
+      <c r="I26" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="28">
+      <c r="A27" s="29">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -2578,11 +2794,11 @@
       </c>
       <c r="E27" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -2593,34 +2809,44 @@
       <c r="I27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
+      <c r="J27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="28">
+      <c r="A28" s="29">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2630,9 +2856,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F28" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -2643,34 +2869,44 @@
       <c r="I28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="J28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="28">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="29">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -2678,11 +2914,11 @@
       </c>
       <c r="E29" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -2693,34 +2929,44 @@
       <c r="I29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
+      <c r="J29" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="28">
+      <c r="A30" s="29">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -2728,11 +2974,11 @@
       </c>
       <c r="E30" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F30" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -2743,34 +2989,44 @@
       <c r="I30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
+      <c r="J30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="28">
+      <c r="A31" s="29">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2778,11 +3034,11 @@
       </c>
       <c r="E31" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F31" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -2793,34 +3049,44 @@
       <c r="I31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+      <c r="J31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="28">
+      <c r="A32" s="29">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -2830,47 +3096,57 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="F32" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="28">
+      <c r="A33" s="29">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -2880,9 +3156,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F33" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -2893,34 +3169,44 @@
       <c r="I33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
+      <c r="J33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="28">
+      <c r="A34" s="29">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2928,11 +3214,11 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F34" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>20</v>
@@ -2943,34 +3229,44 @@
       <c r="I34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
+      <c r="J34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="28">
+      <c r="A35" s="29">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -2978,11 +3274,11 @@
       </c>
       <c r="E35" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -2993,34 +3289,44 @@
       <c r="I35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="J35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="28">
+      <c r="A36" s="29">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -3030,9 +3336,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F36" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3043,34 +3349,44 @@
       <c r="I36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="J36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="28">
+      <c r="A37" s="29">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -3080,9 +3396,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F37" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3093,34 +3409,44 @@
       <c r="I37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
+      <c r="J37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="28">
+      <c r="A38" s="29">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -3130,47 +3456,57 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F38" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="F38" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
+      <c r="H38" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="28">
+      <c r="A39" s="29">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -3180,9 +3516,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F39" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F39" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3190,37 +3526,47 @@
       <c r="H39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
+      <c r="I39" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="28">
+      <c r="A40" s="29">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -3228,11 +3574,11 @@
       </c>
       <c r="E40" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F40" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>20</v>
@@ -3243,34 +3589,44 @@
       <c r="I40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
+      <c r="J40" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="28">
+      <c r="A41" s="29">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="31" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -3278,12 +3634,12 @@
       </c>
       <c r="E41" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="31">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="F41" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
       </c>
@@ -3293,34 +3649,44 @@
       <c r="I41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
+      <c r="J41" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="28">
+      <c r="A42" s="29">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="31" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -3328,13 +3694,13 @@
       </c>
       <c r="E42" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F42" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G42" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G42" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H42" s="26" t="s">
@@ -3343,34 +3709,44 @@
       <c r="I42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
+      <c r="J42" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="28">
+      <c r="A43" s="29">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -3378,11 +3754,11 @@
       </c>
       <c r="E43" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F43" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F43" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -3390,37 +3766,47 @@
       <c r="H43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
+      <c r="I43" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="28">
+      <c r="A44" s="29">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="31" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -3428,11 +3814,11 @@
       </c>
       <c r="E44" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F44" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -3443,34 +3829,44 @@
       <c r="I44" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
+      <c r="J44" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="28">
+      <c r="A45" s="29">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -3480,47 +3876,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F45" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F45" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
+      <c r="J45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="28">
+      <c r="A46" s="29">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="31" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -3528,11 +3934,11 @@
       </c>
       <c r="E46" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F46" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F46" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -3540,37 +3946,47 @@
       <c r="H46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
+      <c r="I46" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="28">
+      <c r="A47" s="29">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -3578,49 +3994,59 @@
       </c>
       <c r="E47" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F47" s="31">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="F47" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="G47" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
+      <c r="I47" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="28">
+      <c r="A48" s="29">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="31" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -3630,9 +4056,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F48" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -3643,34 +4069,44 @@
       <c r="I48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
+      <c r="J48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="28">
+      <c r="A49" s="29">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -3678,49 +4114,59 @@
       </c>
       <c r="E49" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F49" s="31">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="F49" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="G49" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
+      <c r="I49" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="28">
+      <c r="A50" s="29">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="13" t="s">
@@ -3728,11 +4174,11 @@
       </c>
       <c r="E50" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F50" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -3743,34 +4189,44 @@
       <c r="I50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
+      <c r="J50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="28">
+      <c r="A51" s="29">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="31" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -3778,12 +4234,12 @@
       </c>
       <c r="E51" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="31">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="F51" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
       </c>
@@ -3793,34 +4249,44 @@
       <c r="I51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
+      <c r="J51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="28">
+      <c r="A52" s="29">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="31" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -3830,9 +4296,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F52" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F52" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -3843,34 +4309,44 @@
       <c r="I52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
+      <c r="J52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="28">
+      <c r="A53" s="29">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="31" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="13" t="s">
@@ -3878,11 +4354,11 @@
       </c>
       <c r="E53" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F53" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -3893,34 +4369,44 @@
       <c r="I53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
+      <c r="J53" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="28">
+      <c r="A54" s="29">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -3928,49 +4414,59 @@
       </c>
       <c r="E54" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F54" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="F54" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="28">
+      <c r="A55" s="29">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="13" t="s">
@@ -3978,11 +4474,11 @@
       </c>
       <c r="E55" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F55" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>20</v>
@@ -3993,34 +4489,44 @@
       <c r="I55" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
+      <c r="J55" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="28">
+      <c r="A56" s="29">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="31" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -4030,9 +4536,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F56" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>20</v>
@@ -4043,34 +4549,44 @@
       <c r="I56" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
+      <c r="J56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="28">
+      <c r="A57" s="29">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="31" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -4080,9 +4596,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F57" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F57" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -4090,37 +4606,47 @@
       <c r="H57" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
+      <c r="I57" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="28">
+      <c r="A58" s="29">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="31" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -4130,11 +4656,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F58" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G58" s="32" t="s">
+      <c r="F58" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G58" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H58" s="26" t="s">
@@ -4143,34 +4669,44 @@
       <c r="I58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
+      <c r="J58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="28">
+      <c r="A59" s="29">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -4178,11 +4714,11 @@
       </c>
       <c r="E59" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F59" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>20</v>
@@ -4193,34 +4729,44 @@
       <c r="I59" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
+      <c r="J59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="28">
+      <c r="A60" s="29">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="31" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -4228,49 +4774,59 @@
       </c>
       <c r="E60" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F60" s="31">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="F60" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="H60" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
+      <c r="J60" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="28">
+      <c r="A61" s="29">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -4280,9 +4836,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F61" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F61" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>20</v>
@@ -4293,34 +4849,44 @@
       <c r="I61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="34"/>
-      <c r="AA61" s="34"/>
+      <c r="J61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="28">
+      <c r="A62" s="29">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -4328,49 +4894,59 @@
       </c>
       <c r="E62" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F62" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I62" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
+      <c r="J62" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="28">
+      <c r="A63" s="29">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="31" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -4380,11 +4956,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F63" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G63" s="32" t="s">
+      <c r="F63" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H63" s="26" t="s">
@@ -4393,34 +4969,44 @@
       <c r="I63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="34"/>
-      <c r="AA63" s="34"/>
+      <c r="J63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="28">
+      <c r="A64" s="29">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="31" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -4430,9 +5016,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F64" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F64" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>20</v>
@@ -4443,34 +5029,44 @@
       <c r="I64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="34"/>
-      <c r="AA64" s="34"/>
+      <c r="J64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="28">
+      <c r="A65" s="29">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="31" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -4480,47 +5076,57 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F65" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="33" t="s">
+      <c r="F65" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I65" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
+      <c r="J65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="28">
+      <c r="A66" s="29">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="31" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -4530,9 +5136,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F66" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F66" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -4540,37 +5146,47 @@
       <c r="H66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
+      <c r="I66" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="28">
+      <c r="A67" s="29">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="31" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -4580,9 +5196,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F67" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F67" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>20</v>
@@ -4593,34 +5209,44 @@
       <c r="I67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="34"/>
+      <c r="J67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="28">
+      <c r="A68" s="29">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="31" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -4630,9 +5256,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F68" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+      <c r="F68" s="32">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -4643,34 +5269,44 @@
       <c r="I68" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
+      <c r="J68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="28">
+      <c r="A69" s="29">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="31" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -4678,11 +5314,11 @@
       </c>
       <c r="E69" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F69" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -4693,34 +5329,44 @@
       <c r="I69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="34"/>
-      <c r="AA69" s="34"/>
+      <c r="J69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="28">
+      <c r="A70" s="29">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="31" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -4728,49 +5374,59 @@
       </c>
       <c r="E70" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F70" s="31">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="F70" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="34"/>
-      <c r="AA70" s="34"/>
+      <c r="I70" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="28">
+      <c r="A71" s="29">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="31" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -4778,11 +5434,11 @@
       </c>
       <c r="E71" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F71" s="32">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -4793,34 +5449,44 @@
       <c r="I71" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
+      <c r="J71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="35"/>
+      <c r="W71" s="35"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="28">
+      <c r="A72" s="29">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="31" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="13" t="s">
@@ -4828,49 +5494,59 @@
       </c>
       <c r="E72" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F72" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="F72" s="32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="28">
+      <c r="A73" s="29">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="31" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="13" t="s">
@@ -4878,49 +5554,59 @@
       </c>
       <c r="E73" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F73" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I73" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
+      <c r="J73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="28">
+      <c r="A74" s="29">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="31" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="13" t="s">
@@ -4930,47 +5616,57 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F74" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F74" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="33" t="s">
+      <c r="H74" s="34" t="s">
         <v>23</v>
       </c>
       <c r="I74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34"/>
-      <c r="O74" s="34"/>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="34"/>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
+      <c r="J74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+      <c r="V74" s="35"/>
+      <c r="W74" s="35"/>
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="28">
+      <c r="A75" s="29">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="31" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -4978,11 +5674,11 @@
       </c>
       <c r="E75" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="31">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F75" s="32">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -4993,34 +5689,44 @@
       <c r="I75" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
+      <c r="J75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="28">
+      <c r="A76" s="29">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="31" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -5028,49 +5734,59 @@
       </c>
       <c r="E76" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F76" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G76" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G76" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34"/>
-      <c r="O76" s="34"/>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
-      <c r="X76" s="34"/>
-      <c r="Y76" s="34"/>
-      <c r="Z76" s="34"/>
-      <c r="AA76" s="34"/>
+      <c r="I76" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="28">
+      <c r="A77" s="29">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="31" t="s">
         <v>161</v>
       </c>
       <c r="D77" s="13" t="s">
@@ -5078,11 +5794,11 @@
       </c>
       <c r="E77" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F77" s="31">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F77" s="32">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -5090,711 +5806,721 @@
       <c r="H77" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="34"/>
-      <c r="W77" s="34"/>
-      <c r="X77" s="34"/>
-      <c r="Y77" s="34"/>
-      <c r="Z77" s="34"/>
-      <c r="AA77" s="34"/>
+      <c r="I77" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="35"/>
+      <c r="A78" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F78" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="34"/>
-      <c r="W78" s="34"/>
-      <c r="X78" s="34"/>
-      <c r="Y78" s="34"/>
-      <c r="Z78" s="34"/>
-      <c r="AA78" s="34"/>
+      <c r="F78" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G78" s="37"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="35"/>
+      <c r="A79" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B79" s="30"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F79" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="34"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="34"/>
-      <c r="AA79" s="34"/>
+      <c r="F79" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G79" s="37"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
+      <c r="A80" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F80" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="34"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="34"/>
-      <c r="AA80" s="34"/>
+      <c r="F80" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
+      <c r="A81" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B81" s="30"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F81" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="34"/>
-      <c r="W81" s="34"/>
-      <c r="X81" s="34"/>
-      <c r="Y81" s="34"/>
-      <c r="Z81" s="34"/>
-      <c r="AA81" s="34"/>
+      <c r="F81" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G81" s="37"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="30"/>
+      <c r="A82" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B82" s="30"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F82" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G82" s="36"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="34"/>
-      <c r="W82" s="34"/>
-      <c r="X82" s="34"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
+      <c r="F82" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G82" s="37"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
+      <c r="A83" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G83" s="36"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="34"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
+      <c r="F83" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
+      <c r="A84" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F84" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
+      <c r="F84" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
+      <c r="A85" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G85" s="36"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="34"/>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="34"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="34"/>
-      <c r="U85" s="34"/>
-      <c r="V85" s="34"/>
-      <c r="W85" s="34"/>
-      <c r="X85" s="34"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="34"/>
-      <c r="AA85" s="34"/>
+      <c r="F85" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G85" s="37"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
+      <c r="A86" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G86" s="36"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-      <c r="T86" s="34"/>
-      <c r="U86" s="34"/>
-      <c r="V86" s="34"/>
-      <c r="W86" s="34"/>
-      <c r="X86" s="34"/>
-      <c r="Y86" s="34"/>
-      <c r="Z86" s="34"/>
-      <c r="AA86" s="34"/>
+      <c r="F86" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G86" s="37"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
+      <c r="A87" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G87" s="36"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="34"/>
-      <c r="Z87" s="34"/>
-      <c r="AA87" s="34"/>
+      <c r="F87" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G87" s="37"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
+      <c r="A88" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="34"/>
-      <c r="W88" s="34"/>
-      <c r="X88" s="34"/>
-      <c r="Y88" s="34"/>
-      <c r="Z88" s="34"/>
-      <c r="AA88" s="34"/>
+      <c r="F88" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G88" s="37"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
+      <c r="A89" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="34"/>
-      <c r="W89" s="34"/>
-      <c r="X89" s="34"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="34"/>
-      <c r="AA89" s="34"/>
+      <c r="F89" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G89" s="37"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
+      <c r="A90" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G90" s="36"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="34"/>
-      <c r="W90" s="34"/>
-      <c r="X90" s="34"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="34"/>
-      <c r="AA90" s="34"/>
+      <c r="F90" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G90" s="37"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="A91" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G91" s="36"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
-      <c r="U91" s="34"/>
-      <c r="V91" s="34"/>
-      <c r="W91" s="34"/>
-      <c r="X91" s="34"/>
-      <c r="Y91" s="34"/>
-      <c r="Z91" s="34"/>
-      <c r="AA91" s="34"/>
+      <c r="F91" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
+      <c r="A92" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G92" s="36"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="34"/>
-      <c r="W92" s="34"/>
-      <c r="X92" s="34"/>
-      <c r="Y92" s="34"/>
-      <c r="Z92" s="34"/>
-      <c r="AA92" s="34"/>
+      <c r="F92" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G92" s="37"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
+      <c r="A93" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G93" s="36"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-      <c r="T93" s="34"/>
-      <c r="U93" s="34"/>
-      <c r="V93" s="34"/>
-      <c r="W93" s="34"/>
-      <c r="X93" s="34"/>
-      <c r="Y93" s="34"/>
-      <c r="Z93" s="34"/>
-      <c r="AA93" s="34"/>
+      <c r="F93" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G93" s="37"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
+      <c r="A94" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="34"/>
-      <c r="S94" s="34"/>
-      <c r="T94" s="34"/>
-      <c r="U94" s="34"/>
-      <c r="V94" s="34"/>
-      <c r="W94" s="34"/>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="34"/>
-      <c r="Z94" s="34"/>
-      <c r="AA94" s="34"/>
+      <c r="F94" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G94" s="37"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
+      <c r="A95" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G95" s="36"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-      <c r="M95" s="34"/>
-      <c r="N95" s="34"/>
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
-      <c r="T95" s="34"/>
-      <c r="U95" s="34"/>
-      <c r="V95" s="34"/>
-      <c r="W95" s="34"/>
-      <c r="X95" s="34"/>
-      <c r="Y95" s="34"/>
-      <c r="Z95" s="34"/>
-      <c r="AA95" s="34"/>
+      <c r="F95" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G95" s="37"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
@@ -6702,6 +7428,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$A$6:$AA$77"/>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1624,8 +1624,12 @@
       <c r="N7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="O7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
@@ -1654,12 +1658,12 @@
       </c>
       <c r="E8" s="24">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F8" s="32">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="G8" s="33" t="s">
         <v>23</v>
       </c>
@@ -1684,8 +1688,12 @@
       <c r="N8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="O8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
@@ -1718,7 +1726,7 @@
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1744,8 +1752,12 @@
       <c r="N9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="O9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
@@ -1778,7 +1790,7 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1804,8 +1816,12 @@
       <c r="N10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="O10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
@@ -1838,7 +1854,7 @@
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
@@ -1864,8 +1880,12 @@
       <c r="N11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="O11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
@@ -1894,11 +1914,11 @@
       </c>
       <c r="E12" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1924,8 +1944,12 @@
       <c r="N12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
@@ -1954,11 +1978,11 @@
       </c>
       <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -1984,8 +2008,12 @@
       <c r="N13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="O13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
@@ -2018,7 +2046,7 @@
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>20</v>
@@ -2044,8 +2072,12 @@
       <c r="N14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="O14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
@@ -2074,11 +2106,11 @@
       </c>
       <c r="E15" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2104,8 +2136,12 @@
       <c r="N15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
@@ -2134,7 +2170,7 @@
       </c>
       <c r="E16" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
@@ -2164,8 +2200,12 @@
       <c r="N16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
@@ -2198,7 +2238,7 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>20</v>
@@ -2224,8 +2264,12 @@
       <c r="N17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="O17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -2254,11 +2298,11 @@
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2284,8 +2328,12 @@
       <c r="N18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
@@ -2318,7 +2366,7 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2344,8 +2392,12 @@
       <c r="N19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
@@ -2378,7 +2430,7 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2404,8 +2456,12 @@
       <c r="N20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
@@ -2438,7 +2494,7 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2464,8 +2520,12 @@
       <c r="N21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
@@ -2498,7 +2558,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2524,8 +2584,12 @@
       <c r="N22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
@@ -2558,7 +2622,7 @@
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2584,8 +2648,12 @@
       <c r="N23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="O23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
@@ -2618,7 +2686,7 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2644,8 +2712,12 @@
       <c r="N24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="O24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
@@ -2678,7 +2750,7 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -2704,8 +2776,12 @@
       <c r="N25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="O25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
@@ -2734,11 +2810,11 @@
       </c>
       <c r="E26" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -2764,8 +2840,12 @@
       <c r="N26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="O26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
@@ -2794,11 +2874,11 @@
       </c>
       <c r="E27" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -2824,8 +2904,12 @@
       <c r="N27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="O27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
@@ -2858,7 +2942,7 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -2884,8 +2968,12 @@
       <c r="N28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="O28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
@@ -2914,11 +3002,11 @@
       </c>
       <c r="E29" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -2944,8 +3032,12 @@
       <c r="N29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
@@ -2978,7 +3070,7 @@
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3004,8 +3096,12 @@
       <c r="N30" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
@@ -3038,7 +3134,7 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3064,8 +3160,12 @@
       <c r="N31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="O31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -3098,7 +3198,7 @@
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>23</v>
@@ -3124,8 +3224,12 @@
       <c r="N32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="O32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
@@ -3158,7 +3262,7 @@
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3184,8 +3288,12 @@
       <c r="N33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+      <c r="O33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
@@ -3218,7 +3326,7 @@
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>20</v>
@@ -3244,8 +3352,12 @@
       <c r="N34" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
+      <c r="O34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -3278,7 +3390,7 @@
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3304,8 +3416,12 @@
       <c r="N35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="O35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
@@ -3338,7 +3454,7 @@
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3364,8 +3480,12 @@
       <c r="N36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="O36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
@@ -3398,7 +3518,7 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3424,8 +3544,12 @@
       <c r="N37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
+      <c r="O37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -3458,7 +3582,7 @@
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -3484,8 +3608,12 @@
       <c r="N38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+      <c r="O38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
@@ -3518,7 +3646,7 @@
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3544,8 +3672,12 @@
       <c r="N39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="O39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
@@ -3578,7 +3710,7 @@
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>20</v>
@@ -3604,8 +3736,12 @@
       <c r="N40" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="O40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
@@ -3638,7 +3774,7 @@
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -3664,8 +3800,12 @@
       <c r="N41" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="O41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
@@ -3698,7 +3838,7 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>23</v>
@@ -3724,8 +3864,12 @@
       <c r="N42" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
+      <c r="O42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
@@ -3754,11 +3898,11 @@
       </c>
       <c r="E43" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -3784,8 +3928,12 @@
       <c r="N43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
+      <c r="O43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
@@ -3818,7 +3966,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -3844,8 +3992,12 @@
       <c r="N44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
+      <c r="O44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
@@ -3874,11 +4026,11 @@
       </c>
       <c r="E45" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -3904,8 +4056,12 @@
       <c r="N45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
+      <c r="O45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
@@ -3938,7 +4094,7 @@
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -3964,8 +4120,12 @@
       <c r="N46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
+      <c r="O46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
@@ -3998,7 +4158,7 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>20</v>
@@ -4024,8 +4184,12 @@
       <c r="N47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
+      <c r="O47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
@@ -4058,7 +4222,7 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4084,8 +4248,12 @@
       <c r="N48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
+      <c r="O48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
@@ -4118,7 +4286,7 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>20</v>
@@ -4144,8 +4312,12 @@
       <c r="N49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
+      <c r="O49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
@@ -4178,7 +4350,7 @@
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4204,8 +4376,12 @@
       <c r="N50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
+      <c r="O50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
@@ -4238,7 +4414,7 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4264,8 +4440,12 @@
       <c r="N51" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
+      <c r="O51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
       <c r="S51" s="35"/>
@@ -4298,7 +4478,7 @@
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -4324,8 +4504,12 @@
       <c r="N52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
+      <c r="O52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="35"/>
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
@@ -4354,11 +4538,11 @@
       </c>
       <c r="E53" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -4384,8 +4568,12 @@
       <c r="N53" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
+      <c r="O53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
       <c r="S53" s="35"/>
@@ -4414,7 +4602,7 @@
       </c>
       <c r="E54" s="24">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
@@ -4444,8 +4632,12 @@
       <c r="N54" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
+      <c r="O54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
       <c r="S54" s="35"/>
@@ -4478,7 +4670,7 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>20</v>
@@ -4504,8 +4696,12 @@
       <c r="N55" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
+      <c r="O55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="35"/>
       <c r="R55" s="35"/>
       <c r="S55" s="35"/>
@@ -4538,7 +4734,7 @@
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>20</v>
@@ -4564,8 +4760,12 @@
       <c r="N56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
+      <c r="O56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
       <c r="S56" s="35"/>
@@ -4598,7 +4798,7 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -4624,8 +4824,12 @@
       <c r="N57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
+      <c r="O57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
       <c r="S57" s="35"/>
@@ -4654,11 +4858,11 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58" s="33" t="s">
         <v>23</v>
@@ -4684,8 +4888,12 @@
       <c r="N58" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
+      <c r="O58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q58" s="35"/>
       <c r="R58" s="35"/>
       <c r="S58" s="35"/>
@@ -4718,7 +4926,7 @@
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>20</v>
@@ -4744,8 +4952,12 @@
       <c r="N59" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
+      <c r="O59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="35"/>
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
@@ -4774,11 +4986,11 @@
       </c>
       <c r="E60" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -4804,8 +5016,12 @@
       <c r="N60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
+      <c r="O60" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="35"/>
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
@@ -4838,7 +5054,7 @@
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>20</v>
@@ -4864,8 +5080,12 @@
       <c r="N61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
+      <c r="O61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
@@ -4898,7 +5118,7 @@
       </c>
       <c r="F62" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G62" s="33" t="s">
         <v>23</v>
@@ -4924,8 +5144,12 @@
       <c r="N62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
+      <c r="O62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
@@ -4958,7 +5182,7 @@
       </c>
       <c r="F63" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="33" t="s">
         <v>23</v>
@@ -4984,8 +5208,12 @@
       <c r="N63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
+      <c r="O63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
@@ -5014,7 +5242,7 @@
       </c>
       <c r="E64" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="32">
         <f t="shared" si="2"/>
@@ -5044,8 +5272,12 @@
       <c r="N64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
+      <c r="O64" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
       <c r="S64" s="35"/>
@@ -5078,7 +5310,7 @@
       </c>
       <c r="F65" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G65" s="33" t="s">
         <v>23</v>
@@ -5104,8 +5336,12 @@
       <c r="N65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
+      <c r="O65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
@@ -5134,11 +5370,11 @@
       </c>
       <c r="E66" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -5164,8 +5400,12 @@
       <c r="N66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
+      <c r="O66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
@@ -5194,11 +5434,11 @@
       </c>
       <c r="E67" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>20</v>
@@ -5224,8 +5464,12 @@
       <c r="N67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
+      <c r="O67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
@@ -5258,7 +5502,7 @@
       </c>
       <c r="F68" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -5284,8 +5528,12 @@
       <c r="N68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
+      <c r="O68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
@@ -5314,11 +5562,11 @@
       </c>
       <c r="E69" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -5344,8 +5592,12 @@
       <c r="N69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
+      <c r="O69" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
       <c r="S69" s="35"/>
@@ -5374,11 +5626,11 @@
       </c>
       <c r="E70" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -5404,8 +5656,12 @@
       <c r="N70" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
+      <c r="O70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="34" t="s">
+        <v>23</v>
+      </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
       <c r="S70" s="35"/>
@@ -5438,7 +5694,7 @@
       </c>
       <c r="F71" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -5464,8 +5720,12 @@
       <c r="N71" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
+      <c r="O71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
       <c r="S71" s="35"/>
@@ -5498,7 +5758,7 @@
       </c>
       <c r="F72" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>23</v>
@@ -5524,8 +5784,12 @@
       <c r="N72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
+      <c r="O72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
@@ -5554,11 +5818,11 @@
       </c>
       <c r="E73" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73" s="33" t="s">
         <v>23</v>
@@ -5584,8 +5848,12 @@
       <c r="N73" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="O73" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
       <c r="S73" s="35"/>
@@ -5618,7 +5886,7 @@
       </c>
       <c r="F74" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -5644,8 +5912,12 @@
       <c r="N74" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
+      <c r="O74" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
       <c r="S74" s="35"/>
@@ -5674,11 +5946,11 @@
       </c>
       <c r="E75" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -5704,8 +5976,12 @@
       <c r="N75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
+      <c r="O75" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
       <c r="S75" s="35"/>
@@ -5738,7 +6014,7 @@
       </c>
       <c r="F76" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G76" s="33" t="s">
         <v>23</v>
@@ -5764,8 +6040,12 @@
       <c r="N76" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
+      <c r="O76" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="35"/>
       <c r="R76" s="35"/>
       <c r="S76" s="35"/>
@@ -5798,7 +6078,7 @@
       </c>
       <c r="F77" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -5824,8 +6104,12 @@
       <c r="N77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
+      <c r="O77" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="35"/>
       <c r="R77" s="35"/>
       <c r="S77" s="35"/>

--- a/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -942,6 +942,9 @@
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -956,9 +959,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1630,27 +1630,31 @@
       <c r="P7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
+      <c r="Q7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="29">
+      <c r="A8" s="30">
         <f t="shared" ref="A8:A95" si="3">IF(B8&gt;0,A7+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1660,20 +1664,20 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F8" s="32">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="34" t="s">
+      <c r="F8" s="33">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -1688,14 +1692,18 @@
       <c r="N8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="O8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -1707,14 +1715,14 @@
       <c r="AA8" s="35"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="29">
+      <c r="A9" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1722,11 +1730,11 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1758,8 +1766,12 @@
       <c r="P9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
+      <c r="Q9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
@@ -1771,14 +1783,14 @@
       <c r="AA9" s="35"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="29">
+      <c r="A10" s="30">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1786,11 +1798,11 @@
       </c>
       <c r="E10" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F10" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1810,10 +1822,10 @@
       <c r="L10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="34" t="s">
+      <c r="M10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O10" s="27" t="s">
@@ -1822,8 +1834,12 @@
       <c r="P10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
+      <c r="Q10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -1835,14 +1851,14 @@
       <c r="AA10" s="35"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="29">
+      <c r="A11" s="30">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1852,14 +1868,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F11" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F11" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="26" t="s">
@@ -1886,8 +1902,12 @@
       <c r="P11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
+      <c r="Q11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
@@ -1899,14 +1919,14 @@
       <c r="AA11" s="35"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="29">
+      <c r="A12" s="30">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1914,11 +1934,11 @@
       </c>
       <c r="E12" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F12" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1929,7 +1949,7 @@
       <c r="I12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="26" t="s">
@@ -1947,11 +1967,15 @@
       <c r="O12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
+      <c r="P12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
@@ -1963,14 +1987,14 @@
       <c r="AA12" s="35"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="29">
+      <c r="A13" s="30">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1980,14 +2004,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F13" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F13" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="26" t="s">
@@ -2011,11 +2035,15 @@
       <c r="O13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
+      <c r="P13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -2027,14 +2055,14 @@
       <c r="AA13" s="35"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="29">
+      <c r="A14" s="30">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -2044,9 +2072,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F14" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+      <c r="F14" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>20</v>
@@ -2057,7 +2085,7 @@
       <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="26" t="s">
@@ -2066,10 +2094,10 @@
       <c r="L14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="34" t="s">
+      <c r="M14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="27" t="s">
@@ -2078,8 +2106,12 @@
       <c r="P14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="Q14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -2091,14 +2123,14 @@
       <c r="AA14" s="35"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="29">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="30">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -2108,9 +2140,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F15" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F15" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2124,7 +2156,7 @@
       <c r="J15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="28" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="26" t="s">
@@ -2139,11 +2171,15 @@
       <c r="O15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
+      <c r="P15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
@@ -2155,14 +2191,14 @@
       <c r="AA15" s="35"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="29">
+      <c r="A16" s="30">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -2172,9 +2208,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F16" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+      <c r="F16" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>20</v>
@@ -2182,7 +2218,7 @@
       <c r="H16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -2200,14 +2236,18 @@
       <c r="N16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
+      <c r="O16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
@@ -2219,14 +2259,14 @@
       <c r="AA16" s="35"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="29">
+      <c r="A17" s="30">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2236,9 +2276,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F17" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F17" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>20</v>
@@ -2261,7 +2301,7 @@
       <c r="M17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O17" s="27" t="s">
@@ -2270,8 +2310,12 @@
       <c r="P17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="Q17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
@@ -2283,14 +2327,14 @@
       <c r="AA17" s="35"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="29">
+      <c r="A18" s="30">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2300,9 +2344,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F18" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+      <c r="F18" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2319,23 +2363,27 @@
       <c r="K18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="P18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
@@ -2347,14 +2395,14 @@
       <c r="AA18" s="35"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="29">
+      <c r="A19" s="30">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2364,9 +2412,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F19" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2398,8 +2446,12 @@
       <c r="P19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+      <c r="Q19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
@@ -2411,14 +2463,14 @@
       <c r="AA19" s="35"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="29">
+      <c r="A20" s="30">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -2428,9 +2480,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F20" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2462,8 +2514,12 @@
       <c r="P20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
+      <c r="Q20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
@@ -2475,14 +2531,14 @@
       <c r="AA20" s="35"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="29">
+      <c r="A21" s="30">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -2492,9 +2548,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F21" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F21" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2514,10 +2570,10 @@
       <c r="L21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="34" t="s">
+      <c r="M21" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="27" t="s">
@@ -2526,8 +2582,12 @@
       <c r="P21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
+      <c r="Q21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -2539,14 +2599,14 @@
       <c r="AA21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="29">
+      <c r="A22" s="30">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2556,9 +2616,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F22" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F22" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2569,7 +2629,7 @@
       <c r="I22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="26" t="s">
@@ -2590,8 +2650,12 @@
       <c r="P22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
+      <c r="Q22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
@@ -2603,14 +2667,14 @@
       <c r="AA22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="29">
+      <c r="A23" s="30">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -2620,9 +2684,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F23" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F23" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2639,7 +2703,7 @@
       <c r="K23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M23" s="26" t="s">
@@ -2654,8 +2718,12 @@
       <c r="P23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
+      <c r="Q23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
@@ -2667,14 +2735,14 @@
       <c r="AA23" s="35"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="29">
+      <c r="A24" s="30">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -2682,9 +2750,9 @@
       </c>
       <c r="E24" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="32">
+        <v>3</v>
+      </c>
+      <c r="F24" s="33">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2706,7 +2774,7 @@
       <c r="L24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="27" t="s">
@@ -2718,8 +2786,12 @@
       <c r="P24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
+      <c r="Q24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
@@ -2731,14 +2803,14 @@
       <c r="AA24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="29">
+      <c r="A25" s="30">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2746,16 +2818,16 @@
       </c>
       <c r="E25" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="26" t="s">
@@ -2782,8 +2854,12 @@
       <c r="P25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
+      <c r="Q25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
@@ -2795,14 +2871,14 @@
       <c r="AA25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="29">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="30">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -2810,11 +2886,11 @@
       </c>
       <c r="E26" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F26" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -2822,7 +2898,7 @@
       <c r="H26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="26" t="s">
@@ -2834,7 +2910,7 @@
       <c r="L26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="M26" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N26" s="27" t="s">
@@ -2843,11 +2919,15 @@
       <c r="O26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="P26" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
@@ -2859,14 +2939,14 @@
       <c r="AA26" s="35"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="29">
+      <c r="A27" s="30">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -2874,11 +2954,11 @@
       </c>
       <c r="E27" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F27" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -2898,7 +2978,7 @@
       <c r="L27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N27" s="27" t="s">
@@ -2907,11 +2987,15 @@
       <c r="O27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
+      <c r="P27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
@@ -2923,14 +3007,14 @@
       <c r="AA27" s="35"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="29">
+      <c r="A28" s="30">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2940,9 +3024,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F28" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -2974,8 +3058,12 @@
       <c r="P28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
+      <c r="Q28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
@@ -2987,14 +3075,14 @@
       <c r="AA28" s="35"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="29">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="30">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -3002,11 +3090,11 @@
       </c>
       <c r="E29" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F29" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3017,13 +3105,13 @@
       <c r="I29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M29" s="26" t="s">
@@ -3035,11 +3123,15 @@
       <c r="O29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
+      <c r="P29" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
@@ -3051,14 +3143,14 @@
       <c r="AA29" s="35"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="29">
+      <c r="A30" s="30">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -3068,9 +3160,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F30" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F30" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3090,10 +3182,10 @@
       <c r="L30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="34" t="s">
+      <c r="M30" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O30" s="27" t="s">
@@ -3102,8 +3194,12 @@
       <c r="P30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
+      <c r="Q30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
@@ -3115,14 +3211,14 @@
       <c r="AA30" s="35"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="29">
+      <c r="A31" s="30">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -3132,9 +3228,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F31" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F31" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3151,7 +3247,7 @@
       <c r="K31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M31" s="26" t="s">
@@ -3166,8 +3262,12 @@
       <c r="P31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
+      <c r="Q31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
@@ -3179,14 +3279,14 @@
       <c r="AA31" s="35"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29">
+      <c r="A32" s="30">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -3196,17 +3296,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="34" t="s">
+      <c r="F32" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="26" t="s">
@@ -3230,8 +3330,12 @@
       <c r="P32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
+      <c r="Q32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
@@ -3243,14 +3347,14 @@
       <c r="AA32" s="35"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="29">
+      <c r="A33" s="30">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -3258,11 +3362,11 @@
       </c>
       <c r="E33" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3294,8 +3398,12 @@
       <c r="P33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
+      <c r="Q33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
@@ -3307,14 +3415,14 @@
       <c r="AA33" s="35"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="29">
+      <c r="A34" s="30">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -3322,11 +3430,11 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>20</v>
@@ -3349,7 +3457,7 @@
       <c r="M34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="34" t="s">
+      <c r="N34" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O34" s="27" t="s">
@@ -3358,8 +3466,12 @@
       <c r="P34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
+      <c r="Q34" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
@@ -3371,14 +3483,14 @@
       <c r="AA34" s="35"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="29">
+      <c r="A35" s="30">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="32" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -3386,11 +3498,11 @@
       </c>
       <c r="E35" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3407,7 +3519,7 @@
       <c r="K35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L35" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M35" s="26" t="s">
@@ -3422,8 +3534,12 @@
       <c r="P35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
+      <c r="Q35" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
@@ -3435,14 +3551,14 @@
       <c r="AA35" s="35"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="29">
+      <c r="A36" s="30">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="32" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -3450,11 +3566,11 @@
       </c>
       <c r="E36" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F36" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3486,8 +3602,12 @@
       <c r="P36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
+      <c r="Q36" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
@@ -3499,14 +3619,14 @@
       <c r="AA36" s="35"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="29">
+      <c r="A37" s="30">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -3516,9 +3636,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F37" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3550,8 +3670,12 @@
       <c r="P37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
+      <c r="Q37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3563,14 +3687,14 @@
       <c r="AA37" s="35"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="29">
+      <c r="A38" s="30">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="32" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -3578,19 +3702,19 @@
       </c>
       <c r="E38" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F38" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="34" t="s">
+      <c r="H38" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="26" t="s">
@@ -3614,8 +3738,12 @@
       <c r="P38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
+      <c r="Q38" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
@@ -3627,14 +3755,14 @@
       <c r="AA38" s="35"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="29">
+      <c r="A39" s="30">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -3644,9 +3772,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F39" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F39" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3654,7 +3782,7 @@
       <c r="H39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="26" t="s">
@@ -3678,8 +3806,12 @@
       <c r="P39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
+      <c r="Q39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
@@ -3691,14 +3823,14 @@
       <c r="AA39" s="35"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="29">
+      <c r="A40" s="30">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="32" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -3706,11 +3838,11 @@
       </c>
       <c r="E40" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F40" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F40" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>20</v>
@@ -3721,7 +3853,7 @@
       <c r="I40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="26" t="s">
@@ -3733,7 +3865,7 @@
       <c r="M40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="34" t="s">
+      <c r="N40" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O40" s="27" t="s">
@@ -3742,8 +3874,12 @@
       <c r="P40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
+      <c r="Q40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
@@ -3755,14 +3891,14 @@
       <c r="AA40" s="35"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="29">
+      <c r="A41" s="30">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="32" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -3772,9 +3908,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F41" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+      <c r="F41" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -3785,19 +3921,19 @@
       <c r="I41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="34" t="s">
+      <c r="N41" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O41" s="27" t="s">
@@ -3806,8 +3942,12 @@
       <c r="P41" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
+      <c r="Q41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
@@ -3819,14 +3959,14 @@
       <c r="AA41" s="35"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="29">
+      <c r="A42" s="30">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="32" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -3836,11 +3976,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F42" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G42" s="33" t="s">
+      <c r="F42" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>23</v>
       </c>
       <c r="H42" s="26" t="s">
@@ -3849,7 +3989,7 @@
       <c r="I42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="26" t="s">
@@ -3861,7 +4001,7 @@
       <c r="M42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="34" t="s">
+      <c r="N42" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O42" s="27" t="s">
@@ -3870,8 +4010,12 @@
       <c r="P42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
+      <c r="Q42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
@@ -3883,14 +4027,14 @@
       <c r="AA42" s="35"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="29">
+      <c r="A43" s="30">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>93</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -3898,11 +4042,11 @@
       </c>
       <c r="E43" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F43" s="32">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F43" s="33">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -3910,16 +4054,16 @@
       <c r="H43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="34" t="s">
+      <c r="I43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="34" t="s">
+      <c r="L43" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M43" s="26" t="s">
@@ -3931,11 +4075,15 @@
       <c r="O43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
+      <c r="P43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
@@ -3947,14 +4095,14 @@
       <c r="AA43" s="35"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="29">
+      <c r="A44" s="30">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="32" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -3962,11 +4110,11 @@
       </c>
       <c r="E44" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F44" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -3977,7 +4125,7 @@
       <c r="I44" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="26" t="s">
@@ -3998,8 +4146,12 @@
       <c r="P44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
+      <c r="Q44" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
@@ -4011,14 +4163,14 @@
       <c r="AA44" s="35"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="29">
+      <c r="A45" s="30">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="32" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -4028,14 +4180,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F45" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F45" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I45" s="26" t="s">
@@ -4059,11 +4211,15 @@
       <c r="O45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
+      <c r="P45" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
@@ -4075,14 +4231,14 @@
       <c r="AA45" s="35"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="29">
+      <c r="A46" s="30">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="32" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -4090,11 +4246,11 @@
       </c>
       <c r="E46" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F46" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F46" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4102,16 +4258,16 @@
       <c r="H46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="34" t="s">
+      <c r="I46" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="34" t="s">
+      <c r="L46" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M46" s="26" t="s">
@@ -4126,8 +4282,12 @@
       <c r="P46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
+      <c r="Q46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
@@ -4139,14 +4299,14 @@
       <c r="AA46" s="35"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="29">
+      <c r="A47" s="30">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="32" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -4154,11 +4314,11 @@
       </c>
       <c r="E47" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F47" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F47" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>20</v>
@@ -4166,7 +4326,7 @@
       <c r="H47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J47" s="26" t="s">
@@ -4175,7 +4335,7 @@
       <c r="K47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="34" t="s">
+      <c r="L47" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M47" s="26" t="s">
@@ -4190,8 +4350,12 @@
       <c r="P47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
+      <c r="Q47" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R47" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
@@ -4203,14 +4367,14 @@
       <c r="AA47" s="35"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="29">
+      <c r="A48" s="30">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="32" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -4220,9 +4384,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F48" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4254,8 +4418,12 @@
       <c r="P48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
+      <c r="Q48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
@@ -4267,14 +4435,14 @@
       <c r="AA48" s="35"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="29">
+      <c r="A49" s="30">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="32" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -4284,9 +4452,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F49" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F49" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>20</v>
@@ -4294,7 +4462,7 @@
       <c r="H49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J49" s="26" t="s">
@@ -4306,7 +4474,7 @@
       <c r="L49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="34" t="s">
+      <c r="M49" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N49" s="27" t="s">
@@ -4318,8 +4486,12 @@
       <c r="P49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
+      <c r="Q49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
@@ -4331,14 +4503,14 @@
       <c r="AA49" s="35"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="29">
+      <c r="A50" s="30">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="32" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="13" t="s">
@@ -4346,11 +4518,11 @@
       </c>
       <c r="E50" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F50" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F50" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4367,7 +4539,7 @@
       <c r="K50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="34" t="s">
+      <c r="L50" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M50" s="26" t="s">
@@ -4382,8 +4554,12 @@
       <c r="P50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
+      <c r="Q50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
@@ -4395,14 +4571,14 @@
       <c r="AA50" s="35"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="29">
+      <c r="A51" s="30">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="32" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -4410,11 +4586,11 @@
       </c>
       <c r="E51" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F51" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F51" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4428,16 +4604,16 @@
       <c r="J51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="34" t="s">
+      <c r="K51" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="34" t="s">
+      <c r="N51" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O51" s="27" t="s">
@@ -4446,8 +4622,12 @@
       <c r="P51" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
+      <c r="Q51" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
@@ -4459,14 +4639,14 @@
       <c r="AA51" s="35"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="29">
+      <c r="A52" s="30">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="32" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -4474,9 +4654,9 @@
       </c>
       <c r="E52" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="32">
+        <v>2</v>
+      </c>
+      <c r="F52" s="33">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4510,8 +4690,12 @@
       <c r="P52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
+      <c r="Q52" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35"/>
@@ -4523,14 +4707,14 @@
       <c r="AA52" s="35"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="29">
+      <c r="A53" s="30">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D53" s="13" t="s">
@@ -4540,9 +4724,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F53" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+      <c r="F53" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -4553,13 +4737,13 @@
       <c r="I53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="34" t="s">
+      <c r="L53" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M53" s="26" t="s">
@@ -4571,11 +4755,15 @@
       <c r="O53" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
+      <c r="P53" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35"/>
@@ -4587,14 +4775,14 @@
       <c r="AA53" s="35"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="29">
+      <c r="A54" s="30">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -4602,44 +4790,48 @@
       </c>
       <c r="E54" s="24">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F54" s="32">
+        <v>11</v>
+      </c>
+      <c r="F54" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G54" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="34" t="s">
+      <c r="G54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="O54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
+      <c r="L54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35"/>
@@ -4651,14 +4843,14 @@
       <c r="AA54" s="35"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="29">
+      <c r="A55" s="30">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="13" t="s">
@@ -4668,9 +4860,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F55" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F55" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>20</v>
@@ -4690,10 +4882,10 @@
       <c r="L55" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N55" s="34" t="s">
+      <c r="M55" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O55" s="27" t="s">
@@ -4702,8 +4894,12 @@
       <c r="P55" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
+      <c r="Q55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35"/>
@@ -4715,14 +4911,14 @@
       <c r="AA55" s="35"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="29">
+      <c r="A56" s="30">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="32" t="s">
         <v>119</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -4732,9 +4928,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F56" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>20</v>
@@ -4766,8 +4962,12 @@
       <c r="P56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
+      <c r="Q56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35"/>
@@ -4779,14 +4979,14 @@
       <c r="AA56" s="35"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="29">
+      <c r="A57" s="30">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="32" t="s">
         <v>121</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -4796,9 +4996,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F57" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F57" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -4806,7 +5006,7 @@
       <c r="H57" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="34" t="s">
+      <c r="I57" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J57" s="26" t="s">
@@ -4830,8 +5030,12 @@
       <c r="P57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
+      <c r="Q57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35"/>
@@ -4843,14 +5047,14 @@
       <c r="AA57" s="35"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="29">
+      <c r="A58" s="30">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="32" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -4860,11 +5064,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F58" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G58" s="33" t="s">
+      <c r="F58" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G58" s="34" t="s">
         <v>23</v>
       </c>
       <c r="H58" s="26" t="s">
@@ -4891,11 +5095,15 @@
       <c r="O58" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
+      <c r="P58" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35"/>
@@ -4907,14 +5115,14 @@
       <c r="AA58" s="35"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="29">
+      <c r="A59" s="30">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="32" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -4924,9 +5132,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F59" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F59" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>20</v>
@@ -4949,7 +5157,7 @@
       <c r="M59" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="34" t="s">
+      <c r="N59" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O59" s="27" t="s">
@@ -4958,8 +5166,12 @@
       <c r="P59" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
+      <c r="Q59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35"/>
@@ -4971,14 +5183,14 @@
       <c r="AA59" s="35"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="29">
+      <c r="A60" s="30">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="32" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -4986,22 +5198,22 @@
       </c>
       <c r="E60" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F60" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F60" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="34" t="s">
+      <c r="J60" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K60" s="26" t="s">
@@ -5016,14 +5228,18 @@
       <c r="N60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="34" t="s">
+      <c r="O60" s="28" t="s">
         <v>23</v>
       </c>
       <c r="P60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
+      <c r="Q60" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R60" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35"/>
@@ -5035,14 +5251,14 @@
       <c r="AA60" s="35"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="29">
+      <c r="A61" s="30">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -5052,9 +5268,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F61" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F61" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>20</v>
@@ -5086,8 +5302,12 @@
       <c r="P61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
+      <c r="Q61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35"/>
@@ -5099,14 +5319,14 @@
       <c r="AA61" s="35"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="29">
+      <c r="A62" s="30">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="32" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -5116,29 +5336,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F62" s="32">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="34" t="s">
+      <c r="F62" s="33">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I62" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="34" t="s">
+      <c r="J62" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K62" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62" s="34" t="s">
+      <c r="L62" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N62" s="27" t="s">
@@ -5150,8 +5370,12 @@
       <c r="P62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
+      <c r="Q62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35"/>
@@ -5163,14 +5387,14 @@
       <c r="AA62" s="35"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="29">
+      <c r="A63" s="30">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="32" t="s">
         <v>133</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -5178,13 +5402,13 @@
       </c>
       <c r="E63" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F63" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G63" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G63" s="34" t="s">
         <v>23</v>
       </c>
       <c r="H63" s="26" t="s">
@@ -5214,8 +5438,12 @@
       <c r="P63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
+      <c r="Q63" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35"/>
@@ -5227,14 +5455,14 @@
       <c r="AA63" s="35"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="29">
+      <c r="A64" s="30">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="32" t="s">
         <v>135</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -5244,9 +5472,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F64" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F64" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>20</v>
@@ -5272,14 +5500,18 @@
       <c r="N64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P64" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
+      <c r="O64" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35"/>
@@ -5291,14 +5523,14 @@
       <c r="AA64" s="35"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="29">
+      <c r="A65" s="30">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="32" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -5308,14 +5540,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F65" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="34" t="s">
+      <c r="F65" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I65" s="26" t="s">
@@ -5342,8 +5574,12 @@
       <c r="P65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
+      <c r="Q65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35"/>
@@ -5355,14 +5591,14 @@
       <c r="AA65" s="35"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="29">
+      <c r="A66" s="30">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="32" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -5372,9 +5608,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F66" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F66" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -5382,7 +5618,7 @@
       <c r="H66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J66" s="26" t="s">
@@ -5403,11 +5639,15 @@
       <c r="O66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
+      <c r="P66" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35"/>
@@ -5419,14 +5659,14 @@
       <c r="AA66" s="35"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="29">
+      <c r="A67" s="30">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="32" t="s">
         <v>141</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -5434,11 +5674,11 @@
       </c>
       <c r="E67" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F67" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F67" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>20</v>
@@ -5467,11 +5707,15 @@
       <c r="O67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P67" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
+      <c r="P67" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R67" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35"/>
@@ -5483,14 +5727,14 @@
       <c r="AA67" s="35"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="29">
+      <c r="A68" s="30">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="32" t="s">
         <v>143</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -5500,9 +5744,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F68" s="32">
-        <f t="shared" si="2"/>
-        <v>10</v>
+      <c r="F68" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -5534,8 +5778,12 @@
       <c r="P68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
+      <c r="Q68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35"/>
@@ -5547,14 +5795,14 @@
       <c r="AA68" s="35"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="29">
+      <c r="A69" s="30">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="32" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -5562,11 +5810,11 @@
       </c>
       <c r="E69" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F69" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F69" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -5583,7 +5831,7 @@
       <c r="K69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="34" t="s">
+      <c r="L69" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M69" s="26" t="s">
@@ -5595,11 +5843,15 @@
       <c r="O69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
+      <c r="P69" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R69" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35"/>
@@ -5611,14 +5863,14 @@
       <c r="AA69" s="35"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="29">
+      <c r="A70" s="30">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="32" t="s">
         <v>147</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -5626,11 +5878,11 @@
       </c>
       <c r="E70" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F70" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F70" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -5638,7 +5890,7 @@
       <c r="H70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J70" s="26" t="s">
@@ -5650,7 +5902,7 @@
       <c r="L70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M70" s="34" t="s">
+      <c r="M70" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N70" s="27" t="s">
@@ -5659,11 +5911,15 @@
       <c r="O70" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
+      <c r="P70" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q70" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R70" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35"/>
@@ -5675,14 +5931,14 @@
       <c r="AA70" s="35"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="29">
+      <c r="A71" s="30">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="32" t="s">
         <v>149</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -5690,11 +5946,11 @@
       </c>
       <c r="E71" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F71" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F71" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -5714,10 +5970,10 @@
       <c r="L71" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N71" s="34" t="s">
+      <c r="M71" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="28" t="s">
         <v>23</v>
       </c>
       <c r="O71" s="27" t="s">
@@ -5726,8 +5982,12 @@
       <c r="P71" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
+      <c r="Q71" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35"/>
@@ -5739,14 +5999,14 @@
       <c r="AA71" s="35"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="29">
+      <c r="A72" s="30">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="32" t="s">
         <v>151</v>
       </c>
       <c r="D72" s="13" t="s">
@@ -5756,26 +6016,26 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F72" s="32">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G72" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I72" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K72" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="L72" s="34" t="s">
+      <c r="F72" s="33">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M72" s="26" t="s">
@@ -5790,8 +6050,12 @@
       <c r="P72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
+      <c r="Q72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35"/>
@@ -5803,14 +6067,14 @@
       <c r="AA72" s="35"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="29">
+      <c r="A73" s="30">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="32" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="13" t="s">
@@ -5820,14 +6084,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F73" s="32">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="34" t="s">
+      <c r="F73" s="33">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I73" s="26" t="s">
@@ -5845,17 +6109,21 @@
       <c r="M73" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="O73" s="34" t="s">
+      <c r="N73" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="28" t="s">
         <v>23</v>
       </c>
       <c r="P73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
+      <c r="Q73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35"/>
@@ -5867,14 +6135,14 @@
       <c r="AA73" s="35"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="29">
+      <c r="A74" s="30">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="32" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="13" t="s">
@@ -5884,14 +6152,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F74" s="32">
-        <f t="shared" si="2"/>
-        <v>9</v>
+      <c r="F74" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="34" t="s">
+      <c r="H74" s="28" t="s">
         <v>23</v>
       </c>
       <c r="I74" s="26" t="s">
@@ -5918,8 +6186,12 @@
       <c r="P74" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
+      <c r="Q74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35"/>
@@ -5931,14 +6203,14 @@
       <c r="AA74" s="35"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="29">
+      <c r="A75" s="30">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="32" t="s">
         <v>157</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -5948,9 +6220,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F75" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="F75" s="33">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -5964,7 +6236,7 @@
       <c r="J75" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="34" t="s">
+      <c r="K75" s="28" t="s">
         <v>23</v>
       </c>
       <c r="L75" s="26" t="s">
@@ -5976,14 +6248,18 @@
       <c r="N75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="34" t="s">
+      <c r="O75" s="28" t="s">
         <v>23</v>
       </c>
       <c r="P75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
+      <c r="Q75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35"/>
@@ -5995,14 +6271,14 @@
       <c r="AA75" s="35"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="29">
+      <c r="A76" s="30">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="32" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -6012,17 +6288,17 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F76" s="32">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G76" s="33" t="s">
+      <c r="F76" s="33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G76" s="34" t="s">
         <v>23</v>
       </c>
       <c r="H76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="34" t="s">
+      <c r="I76" s="28" t="s">
         <v>23</v>
       </c>
       <c r="J76" s="26" t="s">
@@ -6031,7 +6307,7 @@
       <c r="K76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="34" t="s">
+      <c r="L76" s="28" t="s">
         <v>23</v>
       </c>
       <c r="M76" s="26" t="s">
@@ -6046,8 +6322,12 @@
       <c r="P76" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
+      <c r="Q76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="35"/>
@@ -6059,14 +6339,14 @@
       <c r="AA76" s="35"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="29">
+      <c r="A77" s="30">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="32" t="s">
         <v>161</v>
       </c>
       <c r="D77" s="13" t="s">
@@ -6074,9 +6354,9 @@
       </c>
       <c r="E77" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F77" s="32">
+        <v>5</v>
+      </c>
+      <c r="F77" s="33">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -6086,10 +6366,10 @@
       <c r="H77" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="34" t="s">
+      <c r="I77" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" s="28" t="s">
         <v>23</v>
       </c>
       <c r="K77" s="26" t="s">
@@ -6098,7 +6378,7 @@
       <c r="L77" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M77" s="34" t="s">
+      <c r="M77" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N77" s="27" t="s">
@@ -6110,8 +6390,12 @@
       <c r="P77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="Q77" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R77" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35"/>
@@ -6123,18 +6407,18 @@
       <c r="AA77" s="35"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="36"/>
       <c r="E78" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F78" s="32" t="str">
+      <c r="F78" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6161,18 +6445,18 @@
       <c r="AA78" s="35"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
+      <c r="A79" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="36"/>
       <c r="E79" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F79" s="32" t="str">
+      <c r="F79" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6199,18 +6483,18 @@
       <c r="AA79" s="35"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
+      <c r="A80" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F80" s="32" t="str">
+      <c r="F80" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6237,18 +6521,18 @@
       <c r="AA80" s="35"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="31"/>
+      <c r="A81" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B81" s="31"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F81" s="32" t="str">
+      <c r="F81" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6275,18 +6559,18 @@
       <c r="AA81" s="35"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
+      <c r="A82" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F82" s="32" t="str">
+      <c r="F82" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6313,18 +6597,18 @@
       <c r="AA82" s="35"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
+      <c r="A83" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F83" s="32" t="str">
+      <c r="F83" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6351,18 +6635,18 @@
       <c r="AA83" s="35"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
+      <c r="A84" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F84" s="32" t="str">
+      <c r="F84" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6389,7 +6673,7 @@
       <c r="AA84" s="35"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="29" t="str">
+      <c r="A85" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6400,7 +6684,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F85" s="32" t="str">
+      <c r="F85" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6427,7 +6711,7 @@
       <c r="AA85" s="35"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="29" t="str">
+      <c r="A86" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6438,7 +6722,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F86" s="32" t="str">
+      <c r="F86" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6465,7 +6749,7 @@
       <c r="AA86" s="35"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="29" t="str">
+      <c r="A87" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6476,7 +6760,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F87" s="32" t="str">
+      <c r="F87" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6503,7 +6787,7 @@
       <c r="AA87" s="35"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="29" t="str">
+      <c r="A88" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6514,7 +6798,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F88" s="32" t="str">
+      <c r="F88" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6541,7 +6825,7 @@
       <c r="AA88" s="35"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="29" t="str">
+      <c r="A89" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6552,7 +6836,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F89" s="32" t="str">
+      <c r="F89" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6579,7 +6863,7 @@
       <c r="AA89" s="35"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="29" t="str">
+      <c r="A90" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6590,7 +6874,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F90" s="32" t="str">
+      <c r="F90" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6617,7 +6901,7 @@
       <c r="AA90" s="35"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="29" t="str">
+      <c r="A91" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6628,7 +6912,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F91" s="32" t="str">
+      <c r="F91" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6655,7 +6939,7 @@
       <c r="AA91" s="35"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="29" t="str">
+      <c r="A92" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6666,7 +6950,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F92" s="32" t="str">
+      <c r="F92" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6693,7 +6977,7 @@
       <c r="AA92" s="35"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="29" t="str">
+      <c r="A93" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6704,7 +6988,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F93" s="32" t="str">
+      <c r="F93" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6731,7 +7015,7 @@
       <c r="AA93" s="35"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="29" t="str">
+      <c r="A94" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6742,7 +7026,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F94" s="32" t="str">
+      <c r="F94" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6769,7 +7053,7 @@
       <c r="AA94" s="35"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="29" t="str">
+      <c r="A95" s="30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6780,7 +7064,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F95" s="32" t="str">
+      <c r="F95" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -83,13 +83,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2021IPM014</t>
   </si>
   <si>
     <t>Akshat Sheoran</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP063</t>
@@ -1594,11 +1594,11 @@
       </c>
       <c r="E7" s="24">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1636,9 +1636,15 @@
       <c r="R7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
+      <c r="S7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
       <c r="X7" s="29"/>
@@ -1652,10 +1658,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>9</v>
@@ -1666,19 +1672,19 @@
       </c>
       <c r="F8" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>20</v>
@@ -1693,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="28" t="s">
         <v>20</v>
@@ -1704,9 +1710,15 @@
       <c r="R8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
+      <c r="S8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
@@ -1730,11 +1742,11 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1767,14 +1779,20 @@
         <v>20</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
+      <c r="S9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V9" s="35"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
@@ -1802,7 +1820,7 @@
       </c>
       <c r="F10" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1823,10 +1841,10 @@
         <v>20</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" s="27" t="s">
         <v>20</v>
@@ -1835,14 +1853,20 @@
         <v>20</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
+      <c r="S10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V10" s="35"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
@@ -1870,13 +1894,13 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>20</v>
@@ -1908,9 +1932,15 @@
       <c r="R11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
+      <c r="S11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V11" s="35"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
@@ -1938,7 +1968,7 @@
       </c>
       <c r="F12" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1950,7 +1980,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>20</v>
@@ -1968,17 +1998,23 @@
         <v>20</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
+      <c r="S12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V12" s="35"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
@@ -2002,17 +2038,17 @@
       </c>
       <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>20</v>
@@ -2036,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="28" t="s">
         <v>20</v>
@@ -2044,9 +2080,15 @@
       <c r="R13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
+      <c r="S13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
@@ -2074,7 +2116,7 @@
       </c>
       <c r="F14" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>20</v>
@@ -2086,7 +2128,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" s="26" t="s">
         <v>20</v>
@@ -2095,10 +2137,10 @@
         <v>20</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O14" s="27" t="s">
         <v>20</v>
@@ -2112,9 +2154,15 @@
       <c r="R14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
+      <c r="S14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -2142,7 +2190,7 @@
       </c>
       <c r="F15" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2157,7 +2205,7 @@
         <v>20</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="26" t="s">
         <v>20</v>
@@ -2172,7 +2220,7 @@
         <v>20</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="28" t="s">
         <v>20</v>
@@ -2180,9 +2228,15 @@
       <c r="R15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
+      <c r="S15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -2206,11 +2260,11 @@
       </c>
       <c r="E16" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>20</v>
@@ -2219,7 +2273,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>20</v>
@@ -2237,10 +2291,10 @@
         <v>20</v>
       </c>
       <c r="O16" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="28" t="s">
         <v>20</v>
@@ -2248,9 +2302,15 @@
       <c r="R16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
+      <c r="S16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
@@ -2278,7 +2338,7 @@
       </c>
       <c r="F17" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>20</v>
@@ -2302,7 +2362,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" s="27" t="s">
         <v>20</v>
@@ -2316,9 +2376,15 @@
       <c r="R17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
+      <c r="S17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
@@ -2342,11 +2408,11 @@
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2364,19 +2430,19 @@
         <v>20</v>
       </c>
       <c r="L18" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O18" s="27" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="28" t="s">
         <v>20</v>
@@ -2384,9 +2450,15 @@
       <c r="R18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
+      <c r="S18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
@@ -2410,11 +2482,11 @@
       </c>
       <c r="E19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2452,9 +2524,15 @@
       <c r="R19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
+      <c r="S19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
@@ -2482,7 +2560,7 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2520,9 +2598,15 @@
       <c r="R20" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
+      <c r="S20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
@@ -2550,7 +2634,7 @@
       </c>
       <c r="F21" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2571,10 +2655,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O21" s="27" t="s">
         <v>20</v>
@@ -2588,9 +2672,15 @@
       <c r="R21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
+      <c r="S21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V21" s="35"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
@@ -2614,11 +2704,11 @@
       </c>
       <c r="E22" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2630,7 +2720,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K22" s="26" t="s">
         <v>20</v>
@@ -2656,9 +2746,15 @@
       <c r="R22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
+      <c r="S22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
@@ -2686,7 +2782,7 @@
       </c>
       <c r="F23" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2704,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M23" s="26" t="s">
         <v>20</v>
@@ -2724,9 +2820,15 @@
       <c r="R23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
+      <c r="S23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V23" s="35"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
@@ -2750,11 +2852,11 @@
       </c>
       <c r="E24" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2775,7 +2877,7 @@
         <v>20</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24" s="27" t="s">
         <v>20</v>
@@ -2787,14 +2889,20 @@
         <v>20</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
@@ -2822,13 +2930,13 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>20</v>
@@ -2855,14 +2963,20 @@
         <v>20</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R25" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
+      <c r="S25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
@@ -2886,11 +3000,11 @@
       </c>
       <c r="E26" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -2899,7 +3013,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>20</v>
@@ -2911,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N26" s="27" t="s">
         <v>20</v>
@@ -2920,17 +3034,23 @@
         <v>20</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R26" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
+      <c r="S26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V26" s="35"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
@@ -2958,7 +3078,7 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -2979,7 +3099,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N27" s="27" t="s">
         <v>20</v>
@@ -2988,17 +3108,23 @@
         <v>20</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
+      <c r="S27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
@@ -3022,11 +3148,11 @@
       </c>
       <c r="E28" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -3064,9 +3190,15 @@
       <c r="R28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
+      <c r="S28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V28" s="35"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -3090,11 +3222,11 @@
       </c>
       <c r="E29" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3106,13 +3238,13 @@
         <v>20</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K29" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29" s="26" t="s">
         <v>20</v>
@@ -3124,17 +3256,23 @@
         <v>20</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
+      <c r="S29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -3158,11 +3296,11 @@
       </c>
       <c r="E30" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3183,10 +3321,10 @@
         <v>20</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N30" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O30" s="27" t="s">
         <v>20</v>
@@ -3200,9 +3338,15 @@
       <c r="R30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
+      <c r="S30" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V30" s="35"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
@@ -3226,11 +3370,11 @@
       </c>
       <c r="E31" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3248,7 +3392,7 @@
         <v>20</v>
       </c>
       <c r="L31" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M31" s="26" t="s">
         <v>20</v>
@@ -3268,9 +3412,15 @@
       <c r="R31" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
+      <c r="S31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V31" s="35"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
@@ -3298,16 +3448,16 @@
       </c>
       <c r="F32" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>20</v>
@@ -3336,9 +3486,15 @@
       <c r="R32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
+      <c r="S32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
@@ -3362,11 +3518,11 @@
       </c>
       <c r="E33" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3399,14 +3555,20 @@
         <v>20</v>
       </c>
       <c r="Q33" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
+      <c r="S33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
@@ -3430,11 +3592,11 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>20</v>
@@ -3458,7 +3620,7 @@
         <v>20</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O34" s="27" t="s">
         <v>20</v>
@@ -3467,14 +3629,20 @@
         <v>20</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
+      <c r="S34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
@@ -3502,7 +3670,7 @@
       </c>
       <c r="F35" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3520,7 +3688,7 @@
         <v>20</v>
       </c>
       <c r="L35" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M35" s="26" t="s">
         <v>20</v>
@@ -3535,14 +3703,20 @@
         <v>20</v>
       </c>
       <c r="Q35" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
+      <c r="S35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
@@ -3566,11 +3740,11 @@
       </c>
       <c r="E36" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3603,14 +3777,20 @@
         <v>20</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R36" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
+      <c r="S36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
@@ -3638,7 +3818,7 @@
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3676,9 +3856,15 @@
       <c r="R37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
+      <c r="S37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
@@ -3706,16 +3892,16 @@
       </c>
       <c r="F38" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>20</v>
@@ -3739,14 +3925,20 @@
         <v>20</v>
       </c>
       <c r="Q38" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R38" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
+      <c r="S38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
@@ -3774,7 +3966,7 @@
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3783,7 +3975,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>20</v>
@@ -3812,9 +4004,15 @@
       <c r="R39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
+      <c r="S39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
@@ -3842,7 +4040,7 @@
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>20</v>
@@ -3854,7 +4052,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K40" s="26" t="s">
         <v>20</v>
@@ -3866,7 +4064,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O40" s="27" t="s">
         <v>20</v>
@@ -3875,14 +4073,20 @@
         <v>20</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
+      <c r="S40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V40" s="35"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
@@ -3906,11 +4110,11 @@
       </c>
       <c r="E41" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -3922,19 +4126,19 @@
         <v>20</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K41" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M41" s="26" t="s">
         <v>20</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O41" s="27" t="s">
         <v>20</v>
@@ -3948,9 +4152,15 @@
       <c r="R41" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
+      <c r="S41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
@@ -3974,14 +4184,14 @@
       </c>
       <c r="E42" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>20</v>
@@ -3990,7 +4200,7 @@
         <v>20</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K42" s="26" t="s">
         <v>20</v>
@@ -4002,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O42" s="27" t="s">
         <v>20</v>
@@ -4016,9 +4226,15 @@
       <c r="R42" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
+      <c r="S42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
@@ -4042,11 +4258,11 @@
       </c>
       <c r="E43" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -4055,16 +4271,16 @@
         <v>20</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K43" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L43" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M43" s="26" t="s">
         <v>20</v>
@@ -4076,17 +4292,23 @@
         <v>20</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q43" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
+      <c r="S43" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
       <c r="X43" s="35"/>
@@ -4114,7 +4336,7 @@
       </c>
       <c r="F44" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4126,7 +4348,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K44" s="26" t="s">
         <v>20</v>
@@ -4147,14 +4369,20 @@
         <v>20</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R44" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
+      <c r="S44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
       <c r="X44" s="35"/>
@@ -4178,17 +4406,17 @@
       </c>
       <c r="E45" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>20</v>
@@ -4212,7 +4440,7 @@
         <v>20</v>
       </c>
       <c r="P45" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q45" s="28" t="s">
         <v>20</v>
@@ -4220,9 +4448,15 @@
       <c r="R45" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
+      <c r="S45" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
       <c r="X45" s="35"/>
@@ -4250,7 +4484,7 @@
       </c>
       <c r="F46" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4259,16 +4493,16 @@
         <v>20</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K46" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L46" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M46" s="26" t="s">
         <v>20</v>
@@ -4286,11 +4520,17 @@
         <v>20</v>
       </c>
       <c r="R46" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="S46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
@@ -4318,7 +4558,7 @@
       </c>
       <c r="F47" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>20</v>
@@ -4327,7 +4567,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J47" s="26" t="s">
         <v>20</v>
@@ -4336,7 +4576,7 @@
         <v>20</v>
       </c>
       <c r="L47" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M47" s="26" t="s">
         <v>20</v>
@@ -4351,14 +4591,20 @@
         <v>20</v>
       </c>
       <c r="Q47" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R47" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
+      <c r="S47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
       <c r="X47" s="35"/>
@@ -4386,7 +4632,7 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4424,9 +4670,15 @@
       <c r="R48" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
+      <c r="S48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
       <c r="X48" s="35"/>
@@ -4450,11 +4702,11 @@
       </c>
       <c r="E49" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>20</v>
@@ -4463,7 +4715,7 @@
         <v>20</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J49" s="26" t="s">
         <v>20</v>
@@ -4475,7 +4727,7 @@
         <v>20</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N49" s="27" t="s">
         <v>20</v>
@@ -4492,9 +4744,15 @@
       <c r="R49" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
+      <c r="S49" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
@@ -4518,11 +4776,11 @@
       </c>
       <c r="E50" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4540,7 +4798,7 @@
         <v>20</v>
       </c>
       <c r="L50" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M50" s="26" t="s">
         <v>20</v>
@@ -4558,11 +4816,17 @@
         <v>20</v>
       </c>
       <c r="R50" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="S50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
@@ -4590,7 +4854,7 @@
       </c>
       <c r="F51" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4605,16 +4869,16 @@
         <v>20</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L51" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M51" s="26" t="s">
         <v>20</v>
       </c>
       <c r="N51" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O51" s="27" t="s">
         <v>20</v>
@@ -4623,14 +4887,20 @@
         <v>20</v>
       </c>
       <c r="Q51" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R51" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
+      <c r="S51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
       <c r="X51" s="35"/>
@@ -4654,11 +4924,11 @@
       </c>
       <c r="E52" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -4691,14 +4961,20 @@
         <v>20</v>
       </c>
       <c r="Q52" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R52" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="S52" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
       <c r="X52" s="35"/>
@@ -4726,7 +5002,7 @@
       </c>
       <c r="F53" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -4738,13 +5014,13 @@
         <v>20</v>
       </c>
       <c r="J53" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K53" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L53" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M53" s="26" t="s">
         <v>20</v>
@@ -4756,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="P53" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="28" t="s">
         <v>20</v>
@@ -4764,9 +5040,15 @@
       <c r="R53" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
+      <c r="S53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
       <c r="X53" s="35"/>
@@ -4790,51 +5072,57 @@
       </c>
       <c r="E54" s="24">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" s="33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K54" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R54" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="S54" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35"/>
@@ -4858,11 +5146,11 @@
       </c>
       <c r="E55" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>20</v>
@@ -4883,10 +5171,10 @@
         <v>20</v>
       </c>
       <c r="M55" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N55" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O55" s="27" t="s">
         <v>20</v>
@@ -4900,9 +5188,15 @@
       <c r="R55" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
+      <c r="S55" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
       <c r="X55" s="35"/>
@@ -4930,7 +5224,7 @@
       </c>
       <c r="F56" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>20</v>
@@ -4968,9 +5262,15 @@
       <c r="R56" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
+      <c r="S56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
       <c r="X56" s="35"/>
@@ -4998,7 +5298,7 @@
       </c>
       <c r="F57" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -5007,7 +5307,7 @@
         <v>20</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J57" s="26" t="s">
         <v>20</v>
@@ -5036,9 +5336,15 @@
       <c r="R57" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
+      <c r="S57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
       <c r="X57" s="35"/>
@@ -5062,14 +5368,14 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>20</v>
@@ -5096,7 +5402,7 @@
         <v>20</v>
       </c>
       <c r="P58" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q58" s="28" t="s">
         <v>20</v>
@@ -5104,9 +5410,15 @@
       <c r="R58" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
+      <c r="S58" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
       <c r="X58" s="35"/>
@@ -5130,11 +5442,11 @@
       </c>
       <c r="E59" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>20</v>
@@ -5158,7 +5470,7 @@
         <v>20</v>
       </c>
       <c r="N59" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O59" s="27" t="s">
         <v>20</v>
@@ -5172,9 +5484,15 @@
       <c r="R59" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
+      <c r="S59" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
       <c r="X59" s="35"/>
@@ -5202,19 +5520,19 @@
       </c>
       <c r="F60" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K60" s="26" t="s">
         <v>20</v>
@@ -5229,20 +5547,26 @@
         <v>20</v>
       </c>
       <c r="O60" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P60" s="27" t="s">
         <v>20</v>
       </c>
       <c r="Q60" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R60" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
+      <c r="S60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
       <c r="X60" s="35"/>
@@ -5270,7 +5594,7 @@
       </c>
       <c r="F61" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>20</v>
@@ -5308,9 +5632,15 @@
       <c r="R61" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
+      <c r="S61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
       <c r="X61" s="35"/>
@@ -5338,28 +5668,28 @@
       </c>
       <c r="F62" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I62" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J62" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K62" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L62" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M62" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N62" s="27" t="s">
         <v>20</v>
@@ -5376,9 +5706,15 @@
       <c r="R62" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
+      <c r="S62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
       <c r="X62" s="35"/>
@@ -5402,14 +5738,14 @@
       </c>
       <c r="E63" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H63" s="26" t="s">
         <v>20</v>
@@ -5439,14 +5775,20 @@
         <v>20</v>
       </c>
       <c r="Q63" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R63" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
+      <c r="S63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
       <c r="X63" s="35"/>
@@ -5474,7 +5816,7 @@
       </c>
       <c r="F64" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>20</v>
@@ -5501,10 +5843,10 @@
         <v>20</v>
       </c>
       <c r="O64" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P64" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q64" s="28" t="s">
         <v>20</v>
@@ -5512,9 +5854,15 @@
       <c r="R64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
+      <c r="S64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
       <c r="X64" s="35"/>
@@ -5542,13 +5890,13 @@
       </c>
       <c r="F65" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="26" t="s">
         <v>20</v>
@@ -5580,9 +5928,15 @@
       <c r="R65" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
+      <c r="S65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
       <c r="X65" s="35"/>
@@ -5610,7 +5964,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -5619,7 +5973,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J66" s="26" t="s">
         <v>20</v>
@@ -5640,7 +5994,7 @@
         <v>20</v>
       </c>
       <c r="P66" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q66" s="28" t="s">
         <v>20</v>
@@ -5648,9 +6002,15 @@
       <c r="R66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
+      <c r="S66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
       <c r="X66" s="35"/>
@@ -5674,11 +6034,11 @@
       </c>
       <c r="E67" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>20</v>
@@ -5708,17 +6068,23 @@
         <v>20</v>
       </c>
       <c r="P67" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q67" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R67" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
+      <c r="S67" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
       <c r="X67" s="35"/>
@@ -5746,7 +6112,7 @@
       </c>
       <c r="F68" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -5784,9 +6150,15 @@
       <c r="R68" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
+      <c r="S68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
       <c r="X68" s="35"/>
@@ -5810,11 +6182,11 @@
       </c>
       <c r="E69" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -5832,7 +6204,7 @@
         <v>20</v>
       </c>
       <c r="L69" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M69" s="26" t="s">
         <v>20</v>
@@ -5844,17 +6216,23 @@
         <v>20</v>
       </c>
       <c r="P69" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q69" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R69" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
+      <c r="S69" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
       <c r="X69" s="35"/>
@@ -5882,7 +6260,7 @@
       </c>
       <c r="F70" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -5891,7 +6269,7 @@
         <v>20</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J70" s="26" t="s">
         <v>20</v>
@@ -5903,7 +6281,7 @@
         <v>20</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N70" s="27" t="s">
         <v>20</v>
@@ -5912,17 +6290,23 @@
         <v>20</v>
       </c>
       <c r="P70" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
+      <c r="S70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
       <c r="X70" s="35"/>
@@ -5946,11 +6330,11 @@
       </c>
       <c r="E71" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -5971,10 +6355,10 @@
         <v>20</v>
       </c>
       <c r="M71" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O71" s="27" t="s">
         <v>20</v>
@@ -5983,14 +6367,20 @@
         <v>20</v>
       </c>
       <c r="Q71" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R71" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
+      <c r="S71" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
       <c r="X71" s="35"/>
@@ -6018,25 +6408,25 @@
       </c>
       <c r="F72" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K72" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L72" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M72" s="26" t="s">
         <v>20</v>
@@ -6056,9 +6446,15 @@
       <c r="R72" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
+      <c r="S72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
       <c r="X72" s="35"/>
@@ -6086,13 +6482,13 @@
       </c>
       <c r="F73" s="33">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I73" s="26" t="s">
         <v>20</v>
@@ -6110,10 +6506,10 @@
         <v>20</v>
       </c>
       <c r="N73" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O73" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P73" s="27" t="s">
         <v>20</v>
@@ -6124,9 +6520,15 @@
       <c r="R73" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
+      <c r="S73" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
       <c r="X73" s="35"/>
@@ -6150,17 +6552,17 @@
       </c>
       <c r="E74" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I74" s="26" t="s">
         <v>20</v>
@@ -6192,9 +6594,15 @@
       <c r="R74" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
+      <c r="S74" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
       <c r="X74" s="35"/>
@@ -6218,11 +6626,11 @@
       </c>
       <c r="E75" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -6237,7 +6645,7 @@
         <v>20</v>
       </c>
       <c r="K75" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L75" s="26" t="s">
         <v>20</v>
@@ -6249,7 +6657,7 @@
         <v>20</v>
       </c>
       <c r="O75" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P75" s="27" t="s">
         <v>20</v>
@@ -6260,9 +6668,15 @@
       <c r="R75" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
+      <c r="S75" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
       <c r="X75" s="35"/>
@@ -6286,20 +6700,20 @@
       </c>
       <c r="E76" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H76" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J76" s="26" t="s">
         <v>20</v>
@@ -6308,7 +6722,7 @@
         <v>20</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M76" s="26" t="s">
         <v>20</v>
@@ -6328,9 +6742,15 @@
       <c r="R76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
+      <c r="S76" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V76" s="35"/>
       <c r="W76" s="35"/>
       <c r="X76" s="35"/>
@@ -6354,11 +6774,11 @@
       </c>
       <c r="E77" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F77" s="33">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -6367,10 +6787,10 @@
         <v>20</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J77" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K77" s="26" t="s">
         <v>20</v>
@@ -6379,7 +6799,7 @@
         <v>20</v>
       </c>
       <c r="M77" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N77" s="27" t="s">
         <v>20</v>
@@ -6391,14 +6811,20 @@
         <v>20</v>
       </c>
       <c r="Q77" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R77" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="S77" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
       <c r="X77" s="35"/>

--- a/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1645,8 +1645,12 @@
       <c r="U7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
+      <c r="V7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X7" s="29"/>
       <c r="Y7" s="29"/>
       <c r="Z7" s="29"/>
@@ -1672,7 +1676,7 @@
       </c>
       <c r="F8" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>21</v>
@@ -1719,8 +1723,12 @@
       <c r="U8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
+      <c r="V8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
       <c r="Z8" s="35"/>
@@ -1742,11 +1750,11 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1793,8 +1801,12 @@
       <c r="U9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
+      <c r="V9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
       <c r="Z9" s="35"/>
@@ -1820,7 +1832,7 @@
       </c>
       <c r="F10" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1867,8 +1879,12 @@
       <c r="U10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
+      <c r="V10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
       <c r="Z10" s="35"/>
@@ -1894,7 +1910,7 @@
       </c>
       <c r="F11" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
@@ -1941,8 +1957,12 @@
       <c r="U11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
+      <c r="V11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
       <c r="Z11" s="35"/>
@@ -1968,7 +1988,7 @@
       </c>
       <c r="F12" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -2015,8 +2035,12 @@
       <c r="U12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
+      <c r="V12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
@@ -2042,7 +2066,7 @@
       </c>
       <c r="F13" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -2089,8 +2113,12 @@
       <c r="U13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
+      <c r="V13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
@@ -2116,7 +2144,7 @@
       </c>
       <c r="F14" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>20</v>
@@ -2163,8 +2191,12 @@
       <c r="U14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
+      <c r="V14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
       <c r="Z14" s="35"/>
@@ -2190,7 +2222,7 @@
       </c>
       <c r="F15" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2237,8 +2269,12 @@
       <c r="U15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
+      <c r="V15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="35"/>
@@ -2264,7 +2300,7 @@
       </c>
       <c r="F16" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>20</v>
@@ -2311,8 +2347,12 @@
       <c r="U16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
+      <c r="V16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
@@ -2338,7 +2378,7 @@
       </c>
       <c r="F17" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>20</v>
@@ -2385,8 +2425,12 @@
       <c r="U17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
+      <c r="V17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
@@ -2412,7 +2456,7 @@
       </c>
       <c r="F18" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2459,8 +2503,12 @@
       <c r="U18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
+      <c r="V18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
@@ -2486,7 +2534,7 @@
       </c>
       <c r="F19" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2533,8 +2581,12 @@
       <c r="U19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
+      <c r="V19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
@@ -2560,7 +2612,7 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2607,8 +2659,12 @@
       <c r="U20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
+      <c r="V20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
@@ -2634,7 +2690,7 @@
       </c>
       <c r="F21" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2681,8 +2737,12 @@
       <c r="U21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
+      <c r="V21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
@@ -2704,11 +2764,11 @@
       </c>
       <c r="E22" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2755,8 +2815,12 @@
       <c r="U22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
+      <c r="V22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
       <c r="Z22" s="35"/>
@@ -2778,11 +2842,11 @@
       </c>
       <c r="E23" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2829,8 +2893,12 @@
       <c r="U23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
+      <c r="V23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
@@ -2856,7 +2924,7 @@
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2903,8 +2971,12 @@
       <c r="U24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
+      <c r="V24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
       <c r="Z24" s="35"/>
@@ -2930,7 +3002,7 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -2977,8 +3049,12 @@
       <c r="U25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
+      <c r="V25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
@@ -3004,7 +3080,7 @@
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -3051,8 +3127,12 @@
       <c r="U26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
+      <c r="V26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
       <c r="Z26" s="35"/>
@@ -3078,7 +3158,7 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -3125,8 +3205,12 @@
       <c r="U27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
+      <c r="V27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
@@ -3148,11 +3232,11 @@
       </c>
       <c r="E28" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -3199,8 +3283,12 @@
       <c r="U28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
+      <c r="V28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
       <c r="Z28" s="35"/>
@@ -3226,7 +3314,7 @@
       </c>
       <c r="F29" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3273,8 +3361,12 @@
       <c r="U29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
+      <c r="V29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
@@ -3300,7 +3392,7 @@
       </c>
       <c r="F30" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3347,8 +3439,12 @@
       <c r="U30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
+      <c r="V30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
       <c r="Z30" s="35"/>
@@ -3374,7 +3470,7 @@
       </c>
       <c r="F31" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3421,8 +3517,12 @@
       <c r="U31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
+      <c r="V31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
@@ -3448,7 +3548,7 @@
       </c>
       <c r="F32" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>21</v>
@@ -3495,8 +3595,12 @@
       <c r="U32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
+      <c r="V32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
       <c r="Z32" s="35"/>
@@ -3522,7 +3626,7 @@
       </c>
       <c r="F33" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3569,8 +3673,12 @@
       <c r="U33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
+      <c r="V33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="35"/>
@@ -3596,7 +3704,7 @@
       </c>
       <c r="F34" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>20</v>
@@ -3643,8 +3751,12 @@
       <c r="U34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
+      <c r="V34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
       <c r="Z34" s="35"/>
@@ -3670,7 +3782,7 @@
       </c>
       <c r="F35" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3717,8 +3829,12 @@
       <c r="U35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
+      <c r="V35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
       <c r="Z35" s="35"/>
@@ -3744,7 +3860,7 @@
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3791,8 +3907,12 @@
       <c r="U36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
+      <c r="V36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
       <c r="Z36" s="35"/>
@@ -3818,7 +3938,7 @@
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3865,8 +3985,12 @@
       <c r="U37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
+      <c r="V37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
@@ -3892,7 +4016,7 @@
       </c>
       <c r="F38" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -3939,8 +4063,12 @@
       <c r="U38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
+      <c r="V38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
       <c r="Z38" s="35"/>
@@ -3966,7 +4094,7 @@
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -4013,8 +4141,12 @@
       <c r="U39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
+      <c r="V39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W39" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
       <c r="Z39" s="35"/>
@@ -4040,7 +4172,7 @@
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>20</v>
@@ -4087,8 +4219,12 @@
       <c r="U40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
+      <c r="V40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
       <c r="Z40" s="35"/>
@@ -4114,7 +4250,7 @@
       </c>
       <c r="F41" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -4161,8 +4297,12 @@
       <c r="U41" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
+      <c r="V41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
       <c r="Z41" s="35"/>
@@ -4188,7 +4328,7 @@
       </c>
       <c r="F42" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>21</v>
@@ -4235,8 +4375,12 @@
       <c r="U42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
+      <c r="V42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
       <c r="Z42" s="35"/>
@@ -4262,7 +4406,7 @@
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -4309,8 +4453,12 @@
       <c r="U43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
+      <c r="V43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
       <c r="Z43" s="35"/>
@@ -4336,7 +4484,7 @@
       </c>
       <c r="F44" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4383,8 +4531,12 @@
       <c r="U44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
+      <c r="V44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W44" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X44" s="35"/>
       <c r="Y44" s="35"/>
       <c r="Z44" s="35"/>
@@ -4410,7 +4562,7 @@
       </c>
       <c r="F45" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -4457,8 +4609,12 @@
       <c r="U45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
+      <c r="V45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X45" s="35"/>
       <c r="Y45" s="35"/>
       <c r="Z45" s="35"/>
@@ -4484,7 +4640,7 @@
       </c>
       <c r="F46" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4531,8 +4687,12 @@
       <c r="U46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
+      <c r="V46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X46" s="35"/>
       <c r="Y46" s="35"/>
       <c r="Z46" s="35"/>
@@ -4558,7 +4718,7 @@
       </c>
       <c r="F47" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>20</v>
@@ -4605,8 +4765,12 @@
       <c r="U47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
+      <c r="V47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W47" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
       <c r="Z47" s="35"/>
@@ -4632,7 +4796,7 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4679,8 +4843,12 @@
       <c r="U48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
+      <c r="V48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X48" s="35"/>
       <c r="Y48" s="35"/>
       <c r="Z48" s="35"/>
@@ -4706,7 +4874,7 @@
       </c>
       <c r="F49" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>20</v>
@@ -4753,8 +4921,12 @@
       <c r="U49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
+      <c r="V49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="35"/>
@@ -4780,7 +4952,7 @@
       </c>
       <c r="F50" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4827,8 +4999,12 @@
       <c r="U50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
+      <c r="V50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W50" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X50" s="35"/>
       <c r="Y50" s="35"/>
       <c r="Z50" s="35"/>
@@ -4854,7 +5030,7 @@
       </c>
       <c r="F51" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4901,8 +5077,12 @@
       <c r="U51" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
+      <c r="V51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W51" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
       <c r="Z51" s="35"/>
@@ -4928,7 +5108,7 @@
       </c>
       <c r="F52" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -4975,8 +5155,12 @@
       <c r="U52" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
+      <c r="V52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W52" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X52" s="35"/>
       <c r="Y52" s="35"/>
       <c r="Z52" s="35"/>
@@ -4998,11 +5182,11 @@
       </c>
       <c r="E53" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -5049,8 +5233,12 @@
       <c r="U53" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
+      <c r="V53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="X53" s="35"/>
       <c r="Y53" s="35"/>
       <c r="Z53" s="35"/>
@@ -5076,7 +5264,7 @@
       </c>
       <c r="F54" s="33">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>21</v>
@@ -5123,8 +5311,12 @@
       <c r="U54" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
+      <c r="V54" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X54" s="35"/>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
@@ -5150,7 +5342,7 @@
       </c>
       <c r="F55" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>20</v>
@@ -5197,8 +5389,12 @@
       <c r="U55" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
+      <c r="V55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
       <c r="Z55" s="35"/>
@@ -5224,7 +5420,7 @@
       </c>
       <c r="F56" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>20</v>
@@ -5271,8 +5467,12 @@
       <c r="U56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
+      <c r="V56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X56" s="35"/>
       <c r="Y56" s="35"/>
       <c r="Z56" s="35"/>
@@ -5298,7 +5498,7 @@
       </c>
       <c r="F57" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -5345,8 +5545,12 @@
       <c r="U57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
+      <c r="V57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
       <c r="Z57" s="35"/>
@@ -5372,7 +5576,7 @@
       </c>
       <c r="F58" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>21</v>
@@ -5419,8 +5623,12 @@
       <c r="U58" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
+      <c r="V58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X58" s="35"/>
       <c r="Y58" s="35"/>
       <c r="Z58" s="35"/>
@@ -5446,7 +5654,7 @@
       </c>
       <c r="F59" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>20</v>
@@ -5493,8 +5701,12 @@
       <c r="U59" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
+      <c r="V59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W59" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X59" s="35"/>
       <c r="Y59" s="35"/>
       <c r="Z59" s="35"/>
@@ -5520,7 +5732,7 @@
       </c>
       <c r="F60" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -5567,8 +5779,12 @@
       <c r="U60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
+      <c r="V60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X60" s="35"/>
       <c r="Y60" s="35"/>
       <c r="Z60" s="35"/>
@@ -5594,7 +5810,7 @@
       </c>
       <c r="F61" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>20</v>
@@ -5641,8 +5857,12 @@
       <c r="U61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
+      <c r="V61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X61" s="35"/>
       <c r="Y61" s="35"/>
       <c r="Z61" s="35"/>
@@ -5668,7 +5888,7 @@
       </c>
       <c r="F62" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>21</v>
@@ -5715,8 +5935,12 @@
       <c r="U62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
+      <c r="V62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W62" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X62" s="35"/>
       <c r="Y62" s="35"/>
       <c r="Z62" s="35"/>
@@ -5738,11 +5962,11 @@
       </c>
       <c r="E63" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="34" t="s">
         <v>21</v>
@@ -5789,8 +6013,12 @@
       <c r="U63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
+      <c r="V63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W63" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X63" s="35"/>
       <c r="Y63" s="35"/>
       <c r="Z63" s="35"/>
@@ -5816,7 +6044,7 @@
       </c>
       <c r="F64" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>20</v>
@@ -5863,8 +6091,12 @@
       <c r="U64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
+      <c r="V64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W64" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X64" s="35"/>
       <c r="Y64" s="35"/>
       <c r="Z64" s="35"/>
@@ -5890,7 +6122,7 @@
       </c>
       <c r="F65" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G65" s="34" t="s">
         <v>21</v>
@@ -5937,8 +6169,12 @@
       <c r="U65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
+      <c r="V65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W65" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X65" s="35"/>
       <c r="Y65" s="35"/>
       <c r="Z65" s="35"/>
@@ -5964,7 +6200,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -6011,8 +6247,12 @@
       <c r="U66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
+      <c r="V66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X66" s="35"/>
       <c r="Y66" s="35"/>
       <c r="Z66" s="35"/>
@@ -6038,7 +6278,7 @@
       </c>
       <c r="F67" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>20</v>
@@ -6085,8 +6325,12 @@
       <c r="U67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
+      <c r="V67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
       <c r="Z67" s="35"/>
@@ -6112,7 +6356,7 @@
       </c>
       <c r="F68" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -6159,8 +6403,12 @@
       <c r="U68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
+      <c r="V68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
       <c r="Z68" s="35"/>
@@ -6186,7 +6434,7 @@
       </c>
       <c r="F69" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -6233,8 +6481,12 @@
       <c r="U69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
+      <c r="V69" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
       <c r="Z69" s="35"/>
@@ -6260,7 +6512,7 @@
       </c>
       <c r="F70" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -6307,8 +6559,12 @@
       <c r="U70" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
+      <c r="V70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W70" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
       <c r="Z70" s="35"/>
@@ -6334,7 +6590,7 @@
       </c>
       <c r="F71" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -6381,8 +6637,12 @@
       <c r="U71" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
+      <c r="V71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W71" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
       <c r="Z71" s="35"/>
@@ -6408,7 +6668,7 @@
       </c>
       <c r="F72" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" s="34" t="s">
         <v>21</v>
@@ -6455,8 +6715,12 @@
       <c r="U72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
+      <c r="V72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W72" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
       <c r="Z72" s="35"/>
@@ -6482,7 +6746,7 @@
       </c>
       <c r="F73" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>21</v>
@@ -6529,8 +6793,12 @@
       <c r="U73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
+      <c r="V73" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W73" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="35"/>
@@ -6556,7 +6824,7 @@
       </c>
       <c r="F74" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -6603,8 +6871,12 @@
       <c r="U74" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
+      <c r="V74" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
       <c r="Z74" s="35"/>
@@ -6630,7 +6902,7 @@
       </c>
       <c r="F75" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -6677,8 +6949,12 @@
       <c r="U75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V75" s="35"/>
-      <c r="W75" s="35"/>
+      <c r="V75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X75" s="35"/>
       <c r="Y75" s="35"/>
       <c r="Z75" s="35"/>
@@ -6704,7 +6980,7 @@
       </c>
       <c r="F76" s="33">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G76" s="34" t="s">
         <v>21</v>
@@ -6751,8 +7027,12 @@
       <c r="U76" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V76" s="35"/>
-      <c r="W76" s="35"/>
+      <c r="V76" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W76" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X76" s="35"/>
       <c r="Y76" s="35"/>
       <c r="Z76" s="35"/>
@@ -6778,7 +7058,7 @@
       </c>
       <c r="F77" s="33">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -6825,8 +7105,12 @@
       <c r="U77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
+      <c r="V77" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W77" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X77" s="35"/>
       <c r="Y77" s="35"/>
       <c r="Z77" s="35"/>

--- a/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (ABCD) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="E7" s="24">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1651,9 +1651,7 @@
       <c r="W7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X7" s="29"/>
       <c r="Y7" s="29"/>
       <c r="Z7" s="29"/>
       <c r="AA7" s="29"/>
@@ -1678,7 +1676,7 @@
       </c>
       <c r="F8" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>21</v>
@@ -1731,9 +1729,7 @@
       <c r="W8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
       <c r="Z8" s="35"/>
       <c r="AA8" s="35"/>
@@ -1758,7 +1754,7 @@
       </c>
       <c r="F9" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1811,9 +1807,7 @@
       <c r="W9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
       <c r="Z9" s="35"/>
       <c r="AA9" s="35"/>
@@ -1838,7 +1832,7 @@
       </c>
       <c r="F10" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1891,9 +1885,7 @@
       <c r="W10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X10" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
@@ -1914,7 +1906,7 @@
       </c>
       <c r="E11" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="33">
         <f t="shared" si="2"/>
@@ -1971,9 +1963,7 @@
       <c r="W11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
       <c r="Z11" s="35"/>
       <c r="AA11" s="35"/>
@@ -1994,7 +1984,7 @@
       </c>
       <c r="E12" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="33">
         <f t="shared" si="2"/>
@@ -2051,9 +2041,7 @@
       <c r="W12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35"/>
@@ -2078,7 +2066,7 @@
       </c>
       <c r="F13" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -2131,9 +2119,7 @@
       <c r="W13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X13" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="35"/>
@@ -2158,7 +2144,7 @@
       </c>
       <c r="F14" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>20</v>
@@ -2211,9 +2197,7 @@
       <c r="W14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
       <c r="Z14" s="35"/>
       <c r="AA14" s="35"/>
@@ -2238,7 +2222,7 @@
       </c>
       <c r="F15" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2291,9 +2275,7 @@
       <c r="W15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X15" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
@@ -2318,7 +2300,7 @@
       </c>
       <c r="F16" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>20</v>
@@ -2371,9 +2353,7 @@
       <c r="W16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
       <c r="AA16" s="35"/>
@@ -2394,7 +2374,7 @@
       </c>
       <c r="E17" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="33">
         <f t="shared" si="2"/>
@@ -2451,9 +2431,7 @@
       <c r="W17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="35"/>
@@ -2478,7 +2456,7 @@
       </c>
       <c r="F18" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2531,9 +2509,7 @@
       <c r="W18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
@@ -2558,7 +2534,7 @@
       </c>
       <c r="F19" s="33">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2611,9 +2587,7 @@
       <c r="W19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X19" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
       <c r="Z19" s="35"/>
       <c r="AA19" s="35"/>
@@ -2638,7 +2612,7 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2691,9 +2665,7 @@
       <c r="W20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X20" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
@@ -2718,7 +2690,7 @@
       </c>
       <c r="F21" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2771,9 +2743,7 @@
       <c r="W21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X21" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="35"/>
@@ -2798,7 +2768,7 @@
       </c>
       <c r="F22" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2851,9 +2821,7 @@
       <c r="W22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X22" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
       <c r="Z22" s="35"/>
       <c r="AA22" s="35"/>
@@ -2878,7 +2846,7 @@
       </c>
       <c r="F23" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2931,9 +2899,7 @@
       <c r="W23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X23" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="35"/>
@@ -2958,7 +2924,7 @@
       </c>
       <c r="F24" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -3011,9 +2977,7 @@
       <c r="W24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X24" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
       <c r="Z24" s="35"/>
       <c r="AA24" s="35"/>
@@ -3038,7 +3002,7 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -3091,9 +3055,7 @@
       <c r="W25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X25" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
       <c r="Z25" s="35"/>
       <c r="AA25" s="35"/>
@@ -3118,7 +3080,7 @@
       </c>
       <c r="F26" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -3171,9 +3133,7 @@
       <c r="W26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X26" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
       <c r="Z26" s="35"/>
       <c r="AA26" s="35"/>
@@ -3198,7 +3158,7 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -3251,9 +3211,7 @@
       <c r="W27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X27" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
@@ -3278,7 +3236,7 @@
       </c>
       <c r="F28" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -3331,9 +3289,7 @@
       <c r="W28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X28" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
       <c r="Z28" s="35"/>
       <c r="AA28" s="35"/>
@@ -3358,7 +3314,7 @@
       </c>
       <c r="F29" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3411,9 +3367,7 @@
       <c r="W29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X29" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
       <c r="AA29" s="35"/>
@@ -3438,7 +3392,7 @@
       </c>
       <c r="F30" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3491,9 +3445,7 @@
       <c r="W30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X30" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
       <c r="Z30" s="35"/>
       <c r="AA30" s="35"/>
@@ -3518,7 +3470,7 @@
       </c>
       <c r="F31" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3571,9 +3523,7 @@
       <c r="W31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X31" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
@@ -3598,7 +3548,7 @@
       </c>
       <c r="F32" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>21</v>
@@ -3651,9 +3601,7 @@
       <c r="W32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X32" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
       <c r="Z32" s="35"/>
       <c r="AA32" s="35"/>
@@ -3678,7 +3626,7 @@
       </c>
       <c r="F33" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3731,9 +3679,7 @@
       <c r="W33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X33" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="35"/>
       <c r="AA33" s="35"/>
@@ -3754,7 +3700,7 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" s="33">
         <f t="shared" si="2"/>
@@ -3811,9 +3757,7 @@
       <c r="W34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X34" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
       <c r="Z34" s="35"/>
       <c r="AA34" s="35"/>
@@ -3838,7 +3782,7 @@
       </c>
       <c r="F35" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3891,9 +3835,7 @@
       <c r="W35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
       <c r="Z35" s="35"/>
       <c r="AA35" s="35"/>
@@ -3918,7 +3860,7 @@
       </c>
       <c r="F36" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3971,9 +3913,7 @@
       <c r="W36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X36" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
       <c r="Z36" s="35"/>
       <c r="AA36" s="35"/>
@@ -3998,7 +3938,7 @@
       </c>
       <c r="F37" s="33">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -4051,9 +3991,7 @@
       <c r="W37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
       <c r="AA37" s="35"/>
@@ -4078,7 +4016,7 @@
       </c>
       <c r="F38" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -4131,9 +4069,7 @@
       <c r="W38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X38" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
       <c r="Z38" s="35"/>
       <c r="AA38" s="35"/>
@@ -4158,7 +4094,7 @@
       </c>
       <c r="F39" s="33">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -4211,9 +4147,7 @@
       <c r="W39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X39" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
       <c r="Z39" s="35"/>
       <c r="AA39" s="35"/>
@@ -4238,7 +4172,7 @@
       </c>
       <c r="F40" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>20</v>
@@ -4291,9 +4225,7 @@
       <c r="W40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X40" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
       <c r="Z40" s="35"/>
       <c r="AA40" s="35"/>
@@ -4318,7 +4250,7 @@
       </c>
       <c r="F41" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -4371,9 +4303,7 @@
       <c r="W41" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X41" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
       <c r="Z41" s="35"/>
       <c r="AA41" s="35"/>
@@ -4398,7 +4328,7 @@
       </c>
       <c r="F42" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>21</v>
@@ -4451,9 +4381,7 @@
       <c r="W42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X42" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
       <c r="Z42" s="35"/>
       <c r="AA42" s="35"/>
@@ -4478,7 +4406,7 @@
       </c>
       <c r="F43" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -4531,9 +4459,7 @@
       <c r="W43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X43" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
       <c r="Z43" s="35"/>
       <c r="AA43" s="35"/>
@@ -4558,7 +4484,7 @@
       </c>
       <c r="F44" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4611,9 +4537,7 @@
       <c r="W44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X44" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X44" s="35"/>
       <c r="Y44" s="35"/>
       <c r="Z44" s="35"/>
       <c r="AA44" s="35"/>
@@ -4638,7 +4562,7 @@
       </c>
       <c r="F45" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -4691,9 +4615,7 @@
       <c r="W45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X45" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X45" s="35"/>
       <c r="Y45" s="35"/>
       <c r="Z45" s="35"/>
       <c r="AA45" s="35"/>
@@ -4718,7 +4640,7 @@
       </c>
       <c r="F46" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4771,9 +4693,7 @@
       <c r="W46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X46" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X46" s="35"/>
       <c r="Y46" s="35"/>
       <c r="Z46" s="35"/>
       <c r="AA46" s="35"/>
@@ -4794,7 +4714,7 @@
       </c>
       <c r="E47" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="33">
         <f t="shared" si="2"/>
@@ -4851,9 +4771,7 @@
       <c r="W47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X47" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
       <c r="Z47" s="35"/>
       <c r="AA47" s="35"/>
@@ -4878,7 +4796,7 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4931,9 +4849,7 @@
       <c r="W48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X48" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X48" s="35"/>
       <c r="Y48" s="35"/>
       <c r="Z48" s="35"/>
       <c r="AA48" s="35"/>
@@ -4958,7 +4874,7 @@
       </c>
       <c r="F49" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>20</v>
@@ -5011,9 +4927,7 @@
       <c r="W49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X49" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
       <c r="Z49" s="35"/>
       <c r="AA49" s="35"/>
@@ -5038,7 +4952,7 @@
       </c>
       <c r="F50" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -5091,9 +5005,7 @@
       <c r="W50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X50" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X50" s="35"/>
       <c r="Y50" s="35"/>
       <c r="Z50" s="35"/>
       <c r="AA50" s="35"/>
@@ -5118,7 +5030,7 @@
       </c>
       <c r="F51" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -5171,9 +5083,7 @@
       <c r="W51" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X51" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
       <c r="Z51" s="35"/>
       <c r="AA51" s="35"/>
@@ -5198,7 +5108,7 @@
       </c>
       <c r="F52" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -5251,9 +5161,7 @@
       <c r="W52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X52" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X52" s="35"/>
       <c r="Y52" s="35"/>
       <c r="Z52" s="35"/>
       <c r="AA52" s="35"/>
@@ -5278,7 +5186,7 @@
       </c>
       <c r="F53" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -5331,9 +5239,7 @@
       <c r="W53" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X53" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X53" s="35"/>
       <c r="Y53" s="35"/>
       <c r="Z53" s="35"/>
       <c r="AA53" s="35"/>
@@ -5358,7 +5264,7 @@
       </c>
       <c r="F54" s="33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>21</v>
@@ -5411,9 +5317,7 @@
       <c r="W54" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X54" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X54" s="35"/>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
       <c r="AA54" s="35"/>
@@ -5438,7 +5342,7 @@
       </c>
       <c r="F55" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>20</v>
@@ -5491,9 +5395,7 @@
       <c r="W55" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X55" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
       <c r="Z55" s="35"/>
       <c r="AA55" s="35"/>
@@ -5518,7 +5420,7 @@
       </c>
       <c r="F56" s="33">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>20</v>
@@ -5571,9 +5473,7 @@
       <c r="W56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X56" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X56" s="35"/>
       <c r="Y56" s="35"/>
       <c r="Z56" s="35"/>
       <c r="AA56" s="35"/>
@@ -5598,7 +5498,7 @@
       </c>
       <c r="F57" s="33">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -5651,9 +5551,7 @@
       <c r="W57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X57" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
       <c r="Z57" s="35"/>
       <c r="AA57" s="35"/>
@@ -5674,7 +5572,7 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" s="33">
         <f t="shared" si="2"/>
@@ -5731,9 +5629,7 @@
       <c r="W58" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X58" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X58" s="35"/>
       <c r="Y58" s="35"/>
       <c r="Z58" s="35"/>
       <c r="AA58" s="35"/>
@@ -5758,7 +5654,7 @@
       </c>
       <c r="F59" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>20</v>
@@ -5811,9 +5707,7 @@
       <c r="W59" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X59" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X59" s="35"/>
       <c r="Y59" s="35"/>
       <c r="Z59" s="35"/>
       <c r="AA59" s="35"/>
@@ -5838,7 +5732,7 @@
       </c>
       <c r="F60" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -5891,9 +5785,7 @@
       <c r="W60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X60" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X60" s="35"/>
       <c r="Y60" s="35"/>
       <c r="Z60" s="35"/>
       <c r="AA60" s="35"/>
@@ -5914,7 +5806,7 @@
       </c>
       <c r="E61" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="33">
         <f t="shared" si="2"/>
@@ -5971,9 +5863,7 @@
       <c r="W61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X61" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X61" s="35"/>
       <c r="Y61" s="35"/>
       <c r="Z61" s="35"/>
       <c r="AA61" s="35"/>
@@ -5998,7 +5888,7 @@
       </c>
       <c r="F62" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>21</v>
@@ -6051,9 +5941,7 @@
       <c r="W62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X62" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X62" s="35"/>
       <c r="Y62" s="35"/>
       <c r="Z62" s="35"/>
       <c r="AA62" s="35"/>
@@ -6078,7 +5966,7 @@
       </c>
       <c r="F63" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" s="34" t="s">
         <v>21</v>
@@ -6131,9 +6019,7 @@
       <c r="W63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X63" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X63" s="35"/>
       <c r="Y63" s="35"/>
       <c r="Z63" s="35"/>
       <c r="AA63" s="35"/>
@@ -6158,7 +6044,7 @@
       </c>
       <c r="F64" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>20</v>
@@ -6211,9 +6097,7 @@
       <c r="W64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X64" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X64" s="35"/>
       <c r="Y64" s="35"/>
       <c r="Z64" s="35"/>
       <c r="AA64" s="35"/>
@@ -6234,7 +6118,7 @@
       </c>
       <c r="E65" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" s="33">
         <f t="shared" si="2"/>
@@ -6291,9 +6175,7 @@
       <c r="W65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X65" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="X65" s="35"/>
       <c r="Y65" s="35"/>
       <c r="Z65" s="35"/>
       <c r="AA65" s="35"/>
@@ -6318,7 +6200,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -6371,9 +6253,7 @@
       <c r="W66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X66" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X66" s="35"/>
       <c r="Y66" s="35"/>
       <c r="Z66" s="35"/>
       <c r="AA66" s="35"/>
@@ -6398,7 +6278,7 @@
       </c>
       <c r="F67" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>20</v>
@@ -6451,9 +6331,7 @@
       <c r="W67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X67" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X67" s="35"/>
       <c r="Y67" s="35"/>
       <c r="Z67" s="35"/>
       <c r="AA67" s="35"/>
@@ -6478,7 +6356,7 @@
       </c>
       <c r="F68" s="33">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -6531,9 +6409,7 @@
       <c r="W68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X68" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X68" s="35"/>
       <c r="Y68" s="35"/>
       <c r="Z68" s="35"/>
       <c r="AA68" s="35"/>
@@ -6558,7 +6434,7 @@
       </c>
       <c r="F69" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -6611,9 +6487,7 @@
       <c r="W69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X69" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X69" s="35"/>
       <c r="Y69" s="35"/>
       <c r="Z69" s="35"/>
       <c r="AA69" s="35"/>
@@ -6638,7 +6512,7 @@
       </c>
       <c r="F70" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -6691,9 +6565,7 @@
       <c r="W70" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X70" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
       <c r="Z70" s="35"/>
       <c r="AA70" s="35"/>
@@ -6718,7 +6590,7 @@
       </c>
       <c r="F71" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -6771,9 +6643,7 @@
       <c r="W71" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X71" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
       <c r="Z71" s="35"/>
       <c r="AA71" s="35"/>
@@ -6798,7 +6668,7 @@
       </c>
       <c r="F72" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="34" t="s">
         <v>21</v>
@@ -6851,9 +6721,7 @@
       <c r="W72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X72" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X72" s="35"/>
       <c r="Y72" s="35"/>
       <c r="Z72" s="35"/>
       <c r="AA72" s="35"/>
@@ -6878,7 +6746,7 @@
       </c>
       <c r="F73" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>21</v>
@@ -6931,9 +6799,7 @@
       <c r="W73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X73" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X73" s="35"/>
       <c r="Y73" s="35"/>
       <c r="Z73" s="35"/>
       <c r="AA73" s="35"/>
@@ -6954,7 +6820,7 @@
       </c>
       <c r="E74" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" s="33">
         <f t="shared" si="2"/>
@@ -7011,9 +6877,7 @@
       <c r="W74" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X74" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
       <c r="Z74" s="35"/>
       <c r="AA74" s="35"/>
@@ -7038,7 +6902,7 @@
       </c>
       <c r="F75" s="33">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -7091,9 +6955,7 @@
       <c r="W75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X75" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X75" s="35"/>
       <c r="Y75" s="35"/>
       <c r="Z75" s="35"/>
       <c r="AA75" s="35"/>
@@ -7118,7 +6980,7 @@
       </c>
       <c r="F76" s="33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G76" s="34" t="s">
         <v>21</v>
@@ -7171,9 +7033,7 @@
       <c r="W76" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X76" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X76" s="35"/>
       <c r="Y76" s="35"/>
       <c r="Z76" s="35"/>
       <c r="AA76" s="35"/>
@@ -7198,7 +7058,7 @@
       </c>
       <c r="F77" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -7251,9 +7111,7 @@
       <c r="W77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X77" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="X77" s="35"/>
       <c r="Y77" s="35"/>
       <c r="Z77" s="35"/>
       <c r="AA77" s="35"/>
